--- a/data/Web_MEM_MGU/2023_09_mem_mgu.xlsx
+++ b/data/Web_MEM_MGU/2023_09_mem_mgu.xlsx
@@ -2472,7 +2472,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>1693526400</v>
+        <v>1693515600</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>1693530000</v>
+        <v>1693519200</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>1693533600</v>
+        <v>1693522800</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>1693537200</v>
+        <v>1693526400</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>1693540800</v>
+        <v>1693530000</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>1693544400</v>
+        <v>1693533600</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>1693548000</v>
+        <v>1693537200</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>1693551600</v>
+        <v>1693540800</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>1693555200</v>
+        <v>1693544400</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>1693558800</v>
+        <v>1693548000</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>1693562400</v>
+        <v>1693551600</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>1693566000</v>
+        <v>1693555200</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>1693569600</v>
+        <v>1693558800</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>1693573200</v>
+        <v>1693562400</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>1693576800</v>
+        <v>1693566000</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>1693580400</v>
+        <v>1693569600</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>1693584000</v>
+        <v>1693573200</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>1693587600</v>
+        <v>1693576800</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>1693591200</v>
+        <v>1693580400</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>1693526400</v>
+        <v>1693515600</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>1693530000</v>
+        <v>1693519200</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>1693533600</v>
+        <v>1693522800</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>1693537200</v>
+        <v>1693526400</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>1693540800</v>
+        <v>1693530000</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>1693544400</v>
+        <v>1693533600</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>1693548000</v>
+        <v>1693537200</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>1693551600</v>
+        <v>1693540800</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>1693555200</v>
+        <v>1693544400</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>1693558800</v>
+        <v>1693548000</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>1693562400</v>
+        <v>1693551600</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>1693566000</v>
+        <v>1693555200</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>1693569600</v>
+        <v>1693558800</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>1693573200</v>
+        <v>1693562400</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>1693576800</v>
+        <v>1693566000</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>1693580400</v>
+        <v>1693569600</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>1693584000</v>
+        <v>1693573200</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>1693587600</v>
+        <v>1693576800</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>1693591200</v>
+        <v>1693580400</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>1693594800</v>
+        <v>1693584000</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>1693598400</v>
+        <v>1693587600</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>1693602000</v>
+        <v>1693591200</v>
       </c>
       <c r="B42" t="s">
         <v>31</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>1693602000</v>
+        <v>1693591200</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>1693605600</v>
+        <v>1693594800</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>1693605600</v>
+        <v>1693594800</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>1693609200</v>
+        <v>1693598400</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>1693612800</v>
+        <v>1693602000</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>1693616400</v>
+        <v>1693605600</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>1693616400</v>
+        <v>1693605600</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>1693620000</v>
+        <v>1693609200</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>1693623600</v>
+        <v>1693612800</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>1693627200</v>
+        <v>1693616400</v>
       </c>
       <c r="B52" t="s">
         <v>38</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>1693630800</v>
+        <v>1693620000</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>1693634400</v>
+        <v>1693623600</v>
       </c>
       <c r="B54" t="s">
         <v>40</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>1693638000</v>
+        <v>1693627200</v>
       </c>
       <c r="B55" t="s">
         <v>41</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>1693641600</v>
+        <v>1693630800</v>
       </c>
       <c r="B56" t="s">
         <v>42</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>1693645200</v>
+        <v>1693634400</v>
       </c>
       <c r="B57" t="s">
         <v>43</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>1693648800</v>
+        <v>1693638000</v>
       </c>
       <c r="B58" t="s">
         <v>44</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>1693652400</v>
+        <v>1693641600</v>
       </c>
       <c r="B59" t="s">
         <v>45</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>1693656000</v>
+        <v>1693645200</v>
       </c>
       <c r="B60" t="s">
         <v>46</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>1693659600</v>
+        <v>1693648800</v>
       </c>
       <c r="B61" t="s">
         <v>47</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>1693663200</v>
+        <v>1693652400</v>
       </c>
       <c r="B62" t="s">
         <v>48</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>1693666800</v>
+        <v>1693656000</v>
       </c>
       <c r="B63" t="s">
         <v>49</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>1693670400</v>
+        <v>1693659600</v>
       </c>
       <c r="B64" t="s">
         <v>50</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>1693674000</v>
+        <v>1693663200</v>
       </c>
       <c r="B65" t="s">
         <v>51</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>1693677600</v>
+        <v>1693666800</v>
       </c>
       <c r="B66" t="s">
         <v>52</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>1693681200</v>
+        <v>1693670400</v>
       </c>
       <c r="B67" t="s">
         <v>53</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>1693684800</v>
+        <v>1693674000</v>
       </c>
       <c r="B68" t="s">
         <v>54</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>1693688400</v>
+        <v>1693677600</v>
       </c>
       <c r="B69" t="s">
         <v>55</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>1693688400</v>
+        <v>1693677600</v>
       </c>
       <c r="B70" t="s">
         <v>55</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>1693692000</v>
+        <v>1693681200</v>
       </c>
       <c r="B71" t="s">
         <v>56</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>1693695600</v>
+        <v>1693684800</v>
       </c>
       <c r="B72" t="s">
         <v>57</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>1693699200</v>
+        <v>1693688400</v>
       </c>
       <c r="B73" t="s">
         <v>58</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>1693699200</v>
+        <v>1693688400</v>
       </c>
       <c r="B74" t="s">
         <v>58</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>1693702800</v>
+        <v>1693692000</v>
       </c>
       <c r="B75" t="s">
         <v>59</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>1693702800</v>
+        <v>1693692000</v>
       </c>
       <c r="B76" t="s">
         <v>59</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>1693706400</v>
+        <v>1693695600</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>1693706400</v>
+        <v>1693695600</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>1693710000</v>
+        <v>1693699200</v>
       </c>
       <c r="B79" t="s">
         <v>61</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>1693710000</v>
+        <v>1693699200</v>
       </c>
       <c r="B80" t="s">
         <v>61</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>1693713600</v>
+        <v>1693702800</v>
       </c>
       <c r="B81" t="s">
         <v>62</v>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>1693713600</v>
+        <v>1693702800</v>
       </c>
       <c r="B82" t="s">
         <v>62</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>1693717200</v>
+        <v>1693706400</v>
       </c>
       <c r="B83" t="s">
         <v>63</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>1693717200</v>
+        <v>1693706400</v>
       </c>
       <c r="B84" t="s">
         <v>63</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>1693720800</v>
+        <v>1693710000</v>
       </c>
       <c r="B85" t="s">
         <v>64</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>1693720800</v>
+        <v>1693710000</v>
       </c>
       <c r="B86" t="s">
         <v>64</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>1693724400</v>
+        <v>1693713600</v>
       </c>
       <c r="B87" t="s">
         <v>65</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>1693728000</v>
+        <v>1693717200</v>
       </c>
       <c r="B88" t="s">
         <v>66</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>1693731600</v>
+        <v>1693720800</v>
       </c>
       <c r="B89" t="s">
         <v>67</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>1693735200</v>
+        <v>1693724400</v>
       </c>
       <c r="B90" t="s">
         <v>68</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>1693738800</v>
+        <v>1693728000</v>
       </c>
       <c r="B91" t="s">
         <v>69</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>1693742400</v>
+        <v>1693731600</v>
       </c>
       <c r="B92" t="s">
         <v>70</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>1693746000</v>
+        <v>1693735200</v>
       </c>
       <c r="B93" t="s">
         <v>71</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>1693749600</v>
+        <v>1693738800</v>
       </c>
       <c r="B94" t="s">
         <v>72</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>1693753200</v>
+        <v>1693742400</v>
       </c>
       <c r="B95" t="s">
         <v>73</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>1693756800</v>
+        <v>1693746000</v>
       </c>
       <c r="B96" t="s">
         <v>74</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>1693760400</v>
+        <v>1693749600</v>
       </c>
       <c r="B97" t="s">
         <v>75</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>1693764000</v>
+        <v>1693753200</v>
       </c>
       <c r="B98" t="s">
         <v>76</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>1693767600</v>
+        <v>1693756800</v>
       </c>
       <c r="B99" t="s">
         <v>77</v>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>1693771200</v>
+        <v>1693760400</v>
       </c>
       <c r="B100" t="s">
         <v>78</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>1693774800</v>
+        <v>1693764000</v>
       </c>
       <c r="B101" t="s">
         <v>79</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102">
-        <v>1693778400</v>
+        <v>1693767600</v>
       </c>
       <c r="B102" t="s">
         <v>80</v>
@@ -5155,7 +5155,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103">
-        <v>1693782000</v>
+        <v>1693771200</v>
       </c>
       <c r="B103" t="s">
         <v>81</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104">
-        <v>1693785600</v>
+        <v>1693774800</v>
       </c>
       <c r="B104" t="s">
         <v>82</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105">
-        <v>1693789200</v>
+        <v>1693778400</v>
       </c>
       <c r="B105" t="s">
         <v>83</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106">
-        <v>1693789200</v>
+        <v>1693778400</v>
       </c>
       <c r="B106" t="s">
         <v>83</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107">
-        <v>1693792800</v>
+        <v>1693782000</v>
       </c>
       <c r="B107" t="s">
         <v>84</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108">
-        <v>1693796400</v>
+        <v>1693785600</v>
       </c>
       <c r="B108" t="s">
         <v>85</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109">
-        <v>1693800000</v>
+        <v>1693789200</v>
       </c>
       <c r="B109" t="s">
         <v>86</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110">
-        <v>1693803600</v>
+        <v>1693792800</v>
       </c>
       <c r="B110" t="s">
         <v>87</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111">
-        <v>1693807200</v>
+        <v>1693796400</v>
       </c>
       <c r="B111" t="s">
         <v>88</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112">
-        <v>1693810800</v>
+        <v>1693800000</v>
       </c>
       <c r="B112" t="s">
         <v>89</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113">
-        <v>1693814400</v>
+        <v>1693803600</v>
       </c>
       <c r="B113" t="s">
         <v>90</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114">
-        <v>1693818000</v>
+        <v>1693807200</v>
       </c>
       <c r="B114" t="s">
         <v>91</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115">
-        <v>1693821600</v>
+        <v>1693810800</v>
       </c>
       <c r="B115" t="s">
         <v>92</v>
@@ -5493,7 +5493,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116">
-        <v>1693825200</v>
+        <v>1693814400</v>
       </c>
       <c r="B116" t="s">
         <v>93</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117">
-        <v>1693828800</v>
+        <v>1693818000</v>
       </c>
       <c r="B117" t="s">
         <v>94</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118">
-        <v>1693832400</v>
+        <v>1693821600</v>
       </c>
       <c r="B118" t="s">
         <v>95</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119">
-        <v>1693836000</v>
+        <v>1693825200</v>
       </c>
       <c r="B119" t="s">
         <v>96</v>
@@ -5597,7 +5597,7 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120">
-        <v>1693839600</v>
+        <v>1693828800</v>
       </c>
       <c r="B120" t="s">
         <v>97</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121">
-        <v>1693843200</v>
+        <v>1693832400</v>
       </c>
       <c r="B121" t="s">
         <v>98</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122">
-        <v>1693846800</v>
+        <v>1693836000</v>
       </c>
       <c r="B122" t="s">
         <v>99</v>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123">
-        <v>1693850400</v>
+        <v>1693839600</v>
       </c>
       <c r="B123" t="s">
         <v>100</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124">
-        <v>1693854000</v>
+        <v>1693843200</v>
       </c>
       <c r="B124" t="s">
         <v>101</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125">
-        <v>1693857600</v>
+        <v>1693846800</v>
       </c>
       <c r="B125" t="s">
         <v>102</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126">
-        <v>1693861200</v>
+        <v>1693850400</v>
       </c>
       <c r="B126" t="s">
         <v>103</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127">
-        <v>1693864800</v>
+        <v>1693854000</v>
       </c>
       <c r="B127" t="s">
         <v>104</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128">
-        <v>1693868400</v>
+        <v>1693857600</v>
       </c>
       <c r="B128" t="s">
         <v>105</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129">
-        <v>1693872000</v>
+        <v>1693861200</v>
       </c>
       <c r="B129" t="s">
         <v>106</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130">
-        <v>1693875600</v>
+        <v>1693864800</v>
       </c>
       <c r="B130" t="s">
         <v>107</v>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131">
-        <v>1693879200</v>
+        <v>1693868400</v>
       </c>
       <c r="B131" t="s">
         <v>108</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132">
-        <v>1693882800</v>
+        <v>1693872000</v>
       </c>
       <c r="B132" t="s">
         <v>109</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133">
-        <v>1693886400</v>
+        <v>1693875600</v>
       </c>
       <c r="B133" t="s">
         <v>110</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134">
-        <v>1693890000</v>
+        <v>1693879200</v>
       </c>
       <c r="B134" t="s">
         <v>111</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135">
-        <v>1693893600</v>
+        <v>1693882800</v>
       </c>
       <c r="B135" t="s">
         <v>112</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136">
-        <v>1693897200</v>
+        <v>1693886400</v>
       </c>
       <c r="B136" t="s">
         <v>113</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137">
-        <v>1693900800</v>
+        <v>1693890000</v>
       </c>
       <c r="B137" t="s">
         <v>114</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138">
-        <v>1693904400</v>
+        <v>1693893600</v>
       </c>
       <c r="B138" t="s">
         <v>115</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139">
-        <v>1693908000</v>
+        <v>1693897200</v>
       </c>
       <c r="B139" t="s">
         <v>116</v>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140">
-        <v>1693911600</v>
+        <v>1693900800</v>
       </c>
       <c r="B140" t="s">
         <v>117</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141">
-        <v>1693915200</v>
+        <v>1693904400</v>
       </c>
       <c r="B141" t="s">
         <v>118</v>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142">
-        <v>1693918800</v>
+        <v>1693908000</v>
       </c>
       <c r="B142" t="s">
         <v>119</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143">
-        <v>1693922400</v>
+        <v>1693911600</v>
       </c>
       <c r="B143" t="s">
         <v>120</v>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144">
-        <v>1693926000</v>
+        <v>1693915200</v>
       </c>
       <c r="B144" t="s">
         <v>121</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145">
-        <v>1693929600</v>
+        <v>1693918800</v>
       </c>
       <c r="B145" t="s">
         <v>122</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146">
-        <v>1693933200</v>
+        <v>1693922400</v>
       </c>
       <c r="B146" t="s">
         <v>123</v>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147">
-        <v>1693936800</v>
+        <v>1693926000</v>
       </c>
       <c r="B147" t="s">
         <v>124</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148">
-        <v>1693940400</v>
+        <v>1693929600</v>
       </c>
       <c r="B148" t="s">
         <v>125</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149">
-        <v>1693944000</v>
+        <v>1693933200</v>
       </c>
       <c r="B149" t="s">
         <v>126</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150">
-        <v>1693947600</v>
+        <v>1693936800</v>
       </c>
       <c r="B150" t="s">
         <v>127</v>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151">
-        <v>1693951200</v>
+        <v>1693940400</v>
       </c>
       <c r="B151" t="s">
         <v>128</v>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152">
-        <v>1693954800</v>
+        <v>1693944000</v>
       </c>
       <c r="B152" t="s">
         <v>129</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153">
-        <v>1693958400</v>
+        <v>1693947600</v>
       </c>
       <c r="B153" t="s">
         <v>130</v>
@@ -6481,7 +6481,7 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154">
-        <v>1693962000</v>
+        <v>1693951200</v>
       </c>
       <c r="B154" t="s">
         <v>131</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155">
-        <v>1693965600</v>
+        <v>1693954800</v>
       </c>
       <c r="B155" t="s">
         <v>132</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156">
-        <v>1693969200</v>
+        <v>1693958400</v>
       </c>
       <c r="B156" t="s">
         <v>133</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157">
-        <v>1693972800</v>
+        <v>1693962000</v>
       </c>
       <c r="B157" t="s">
         <v>134</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158">
-        <v>1693976400</v>
+        <v>1693965600</v>
       </c>
       <c r="B158" t="s">
         <v>135</v>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159">
-        <v>1693980000</v>
+        <v>1693969200</v>
       </c>
       <c r="B159" t="s">
         <v>136</v>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160">
-        <v>1693983600</v>
+        <v>1693972800</v>
       </c>
       <c r="B160" t="s">
         <v>137</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161">
-        <v>1693987200</v>
+        <v>1693976400</v>
       </c>
       <c r="B161" t="s">
         <v>138</v>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162">
-        <v>1693990800</v>
+        <v>1693980000</v>
       </c>
       <c r="B162" t="s">
         <v>139</v>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163">
-        <v>1693994400</v>
+        <v>1693983600</v>
       </c>
       <c r="B163" t="s">
         <v>140</v>
@@ -6741,7 +6741,7 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164">
-        <v>1693998000</v>
+        <v>1693987200</v>
       </c>
       <c r="B164" t="s">
         <v>141</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165">
-        <v>1694001600</v>
+        <v>1693990800</v>
       </c>
       <c r="B165" t="s">
         <v>142</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166">
-        <v>1694005200</v>
+        <v>1693994400</v>
       </c>
       <c r="B166" t="s">
         <v>143</v>
@@ -6819,7 +6819,7 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167">
-        <v>1694008800</v>
+        <v>1693998000</v>
       </c>
       <c r="B167" t="s">
         <v>144</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168">
-        <v>1694012400</v>
+        <v>1694001600</v>
       </c>
       <c r="B168" t="s">
         <v>145</v>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169">
-        <v>1694016000</v>
+        <v>1694005200</v>
       </c>
       <c r="B169" t="s">
         <v>146</v>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170">
-        <v>1694019600</v>
+        <v>1694008800</v>
       </c>
       <c r="B170" t="s">
         <v>147</v>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171">
-        <v>1694023200</v>
+        <v>1694012400</v>
       </c>
       <c r="B171" t="s">
         <v>148</v>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172">
-        <v>1694026800</v>
+        <v>1694016000</v>
       </c>
       <c r="B172" t="s">
         <v>149</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173">
-        <v>1694030400</v>
+        <v>1694019600</v>
       </c>
       <c r="B173" t="s">
         <v>150</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174">
-        <v>1694034000</v>
+        <v>1694023200</v>
       </c>
       <c r="B174" t="s">
         <v>151</v>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175">
-        <v>1694034000</v>
+        <v>1694023200</v>
       </c>
       <c r="B175" t="s">
         <v>151</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176">
-        <v>1694037600</v>
+        <v>1694026800</v>
       </c>
       <c r="B176" t="s">
         <v>152</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177">
-        <v>1694041200</v>
+        <v>1694030400</v>
       </c>
       <c r="B177" t="s">
         <v>153</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178">
-        <v>1694044800</v>
+        <v>1694034000</v>
       </c>
       <c r="B178" t="s">
         <v>154</v>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179">
-        <v>1694048400</v>
+        <v>1694037600</v>
       </c>
       <c r="B179" t="s">
         <v>155</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180">
-        <v>1694052000</v>
+        <v>1694041200</v>
       </c>
       <c r="B180" t="s">
         <v>156</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181">
-        <v>1694055600</v>
+        <v>1694044800</v>
       </c>
       <c r="B181" t="s">
         <v>157</v>
@@ -7209,7 +7209,7 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182">
-        <v>1694059200</v>
+        <v>1694048400</v>
       </c>
       <c r="B182" t="s">
         <v>158</v>
@@ -7235,7 +7235,7 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183">
-        <v>1694062800</v>
+        <v>1694052000</v>
       </c>
       <c r="B183" t="s">
         <v>159</v>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184">
-        <v>1694066400</v>
+        <v>1694055600</v>
       </c>
       <c r="B184" t="s">
         <v>160</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185">
-        <v>1694070000</v>
+        <v>1694059200</v>
       </c>
       <c r="B185" t="s">
         <v>161</v>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186">
-        <v>1694073600</v>
+        <v>1694062800</v>
       </c>
       <c r="B186" t="s">
         <v>162</v>
@@ -7339,7 +7339,7 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187">
-        <v>1694077200</v>
+        <v>1694066400</v>
       </c>
       <c r="B187" t="s">
         <v>163</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188">
-        <v>1694080800</v>
+        <v>1694070000</v>
       </c>
       <c r="B188" t="s">
         <v>164</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189">
-        <v>1694084400</v>
+        <v>1694073600</v>
       </c>
       <c r="B189" t="s">
         <v>165</v>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190">
-        <v>1694088000</v>
+        <v>1694077200</v>
       </c>
       <c r="B190" t="s">
         <v>166</v>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191">
-        <v>1694091600</v>
+        <v>1694080800</v>
       </c>
       <c r="B191" t="s">
         <v>167</v>
@@ -7469,7 +7469,7 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192">
-        <v>1694095200</v>
+        <v>1694084400</v>
       </c>
       <c r="B192" t="s">
         <v>168</v>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="193" spans="1:9">
       <c r="A193">
-        <v>1694098800</v>
+        <v>1694088000</v>
       </c>
       <c r="B193" t="s">
         <v>169</v>
@@ -7521,7 +7521,7 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194">
-        <v>1694102400</v>
+        <v>1694091600</v>
       </c>
       <c r="B194" t="s">
         <v>170</v>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="195" spans="1:9">
       <c r="A195">
-        <v>1694106000</v>
+        <v>1694095200</v>
       </c>
       <c r="B195" t="s">
         <v>171</v>
@@ -7573,7 +7573,7 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196">
-        <v>1694109600</v>
+        <v>1694098800</v>
       </c>
       <c r="B196" t="s">
         <v>172</v>
@@ -7599,7 +7599,7 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197">
-        <v>1694113200</v>
+        <v>1694102400</v>
       </c>
       <c r="B197" t="s">
         <v>173</v>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198">
-        <v>1694116800</v>
+        <v>1694106000</v>
       </c>
       <c r="B198" t="s">
         <v>174</v>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199">
-        <v>1694120400</v>
+        <v>1694109600</v>
       </c>
       <c r="B199" t="s">
         <v>175</v>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200">
-        <v>1694124000</v>
+        <v>1694113200</v>
       </c>
       <c r="B200" t="s">
         <v>176</v>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201">
-        <v>1694127600</v>
+        <v>1694116800</v>
       </c>
       <c r="B201" t="s">
         <v>177</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202">
-        <v>1694131200</v>
+        <v>1694120400</v>
       </c>
       <c r="B202" t="s">
         <v>178</v>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203">
-        <v>1694134800</v>
+        <v>1694124000</v>
       </c>
       <c r="B203" t="s">
         <v>179</v>
@@ -7781,7 +7781,7 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204">
-        <v>1694138400</v>
+        <v>1694127600</v>
       </c>
       <c r="B204" t="s">
         <v>180</v>
@@ -7807,7 +7807,7 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205">
-        <v>1694142000</v>
+        <v>1694131200</v>
       </c>
       <c r="B205" t="s">
         <v>181</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206">
-        <v>1694145600</v>
+        <v>1694134800</v>
       </c>
       <c r="B206" t="s">
         <v>182</v>
@@ -7859,7 +7859,7 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207">
-        <v>1694149200</v>
+        <v>1694138400</v>
       </c>
       <c r="B207" t="s">
         <v>183</v>
@@ -7885,7 +7885,7 @@
     </row>
     <row r="208" spans="1:9">
       <c r="A208">
-        <v>1694152800</v>
+        <v>1694142000</v>
       </c>
       <c r="B208" t="s">
         <v>184</v>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209">
-        <v>1694156400</v>
+        <v>1694145600</v>
       </c>
       <c r="B209" t="s">
         <v>185</v>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="210" spans="1:9">
       <c r="A210">
-        <v>1694160000</v>
+        <v>1694149200</v>
       </c>
       <c r="B210" t="s">
         <v>186</v>
@@ -7963,7 +7963,7 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211">
-        <v>1694163600</v>
+        <v>1694152800</v>
       </c>
       <c r="B211" t="s">
         <v>187</v>
@@ -7989,7 +7989,7 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212">
-        <v>1694167200</v>
+        <v>1694156400</v>
       </c>
       <c r="B212" t="s">
         <v>188</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213">
-        <v>1694170800</v>
+        <v>1694160000</v>
       </c>
       <c r="B213" t="s">
         <v>189</v>
@@ -8041,7 +8041,7 @@
     </row>
     <row r="214" spans="1:9">
       <c r="A214">
-        <v>1694174400</v>
+        <v>1694163600</v>
       </c>
       <c r="B214" t="s">
         <v>190</v>
@@ -8067,7 +8067,7 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215">
-        <v>1694178000</v>
+        <v>1694167200</v>
       </c>
       <c r="B215" t="s">
         <v>191</v>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216">
-        <v>1694181600</v>
+        <v>1694170800</v>
       </c>
       <c r="B216" t="s">
         <v>192</v>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217">
-        <v>1694185200</v>
+        <v>1694174400</v>
       </c>
       <c r="B217" t="s">
         <v>193</v>
@@ -8145,7 +8145,7 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218">
-        <v>1694188800</v>
+        <v>1694178000</v>
       </c>
       <c r="B218" t="s">
         <v>194</v>
@@ -8171,7 +8171,7 @@
     </row>
     <row r="219" spans="1:9">
       <c r="A219">
-        <v>1694192400</v>
+        <v>1694181600</v>
       </c>
       <c r="B219" t="s">
         <v>195</v>
@@ -8197,7 +8197,7 @@
     </row>
     <row r="220" spans="1:9">
       <c r="A220">
-        <v>1694196000</v>
+        <v>1694185200</v>
       </c>
       <c r="B220" t="s">
         <v>196</v>
@@ -8223,7 +8223,7 @@
     </row>
     <row r="221" spans="1:9">
       <c r="A221">
-        <v>1694199600</v>
+        <v>1694188800</v>
       </c>
       <c r="B221" t="s">
         <v>197</v>
@@ -8249,7 +8249,7 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222">
-        <v>1694203200</v>
+        <v>1694192400</v>
       </c>
       <c r="B222" t="s">
         <v>198</v>
@@ -8275,7 +8275,7 @@
     </row>
     <row r="223" spans="1:9">
       <c r="A223">
-        <v>1694206800</v>
+        <v>1694196000</v>
       </c>
       <c r="B223" t="s">
         <v>199</v>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="224" spans="1:9">
       <c r="A224">
-        <v>1694206800</v>
+        <v>1694196000</v>
       </c>
       <c r="B224" t="s">
         <v>199</v>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="225" spans="1:9">
       <c r="A225">
-        <v>1694210400</v>
+        <v>1694199600</v>
       </c>
       <c r="B225" t="s">
         <v>200</v>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="226" spans="1:9">
       <c r="A226">
-        <v>1694214000</v>
+        <v>1694203200</v>
       </c>
       <c r="B226" t="s">
         <v>201</v>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="227" spans="1:9">
       <c r="A227">
-        <v>1694217600</v>
+        <v>1694206800</v>
       </c>
       <c r="B227" t="s">
         <v>202</v>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228">
-        <v>1694221200</v>
+        <v>1694210400</v>
       </c>
       <c r="B228" t="s">
         <v>203</v>
@@ -8431,7 +8431,7 @@
     </row>
     <row r="229" spans="1:9">
       <c r="A229">
-        <v>1694221200</v>
+        <v>1694210400</v>
       </c>
       <c r="B229" t="s">
         <v>203</v>
@@ -8457,7 +8457,7 @@
     </row>
     <row r="230" spans="1:9">
       <c r="A230">
-        <v>1694224800</v>
+        <v>1694214000</v>
       </c>
       <c r="B230" t="s">
         <v>204</v>
@@ -8483,7 +8483,7 @@
     </row>
     <row r="231" spans="1:9">
       <c r="A231">
-        <v>1694228400</v>
+        <v>1694217600</v>
       </c>
       <c r="B231" t="s">
         <v>205</v>
@@ -8509,7 +8509,7 @@
     </row>
     <row r="232" spans="1:9">
       <c r="A232">
-        <v>1694232000</v>
+        <v>1694221200</v>
       </c>
       <c r="B232" t="s">
         <v>206</v>
@@ -8535,7 +8535,7 @@
     </row>
     <row r="233" spans="1:9">
       <c r="A233">
-        <v>1694235600</v>
+        <v>1694224800</v>
       </c>
       <c r="B233" t="s">
         <v>207</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="234" spans="1:9">
       <c r="A234">
-        <v>1694239200</v>
+        <v>1694228400</v>
       </c>
       <c r="B234" t="s">
         <v>208</v>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235">
-        <v>1694242800</v>
+        <v>1694232000</v>
       </c>
       <c r="B235" t="s">
         <v>209</v>
@@ -8613,7 +8613,7 @@
     </row>
     <row r="236" spans="1:9">
       <c r="A236">
-        <v>1694246400</v>
+        <v>1694235600</v>
       </c>
       <c r="B236" t="s">
         <v>210</v>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="237" spans="1:9">
       <c r="A237">
-        <v>1694250000</v>
+        <v>1694239200</v>
       </c>
       <c r="B237" t="s">
         <v>211</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="238" spans="1:9">
       <c r="A238">
-        <v>1694253600</v>
+        <v>1694242800</v>
       </c>
       <c r="B238" t="s">
         <v>212</v>
@@ -8691,7 +8691,7 @@
     </row>
     <row r="239" spans="1:9">
       <c r="A239">
-        <v>1694257200</v>
+        <v>1694246400</v>
       </c>
       <c r="B239" t="s">
         <v>213</v>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="240" spans="1:9">
       <c r="A240">
-        <v>1694260800</v>
+        <v>1694250000</v>
       </c>
       <c r="B240" t="s">
         <v>214</v>
@@ -8743,7 +8743,7 @@
     </row>
     <row r="241" spans="1:9">
       <c r="A241">
-        <v>1694264400</v>
+        <v>1694253600</v>
       </c>
       <c r="B241" t="s">
         <v>215</v>
@@ -8769,7 +8769,7 @@
     </row>
     <row r="242" spans="1:9">
       <c r="A242">
-        <v>1694268000</v>
+        <v>1694257200</v>
       </c>
       <c r="B242" t="s">
         <v>216</v>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="243" spans="1:9">
       <c r="A243">
-        <v>1694271600</v>
+        <v>1694260800</v>
       </c>
       <c r="B243" t="s">
         <v>217</v>
@@ -8821,7 +8821,7 @@
     </row>
     <row r="244" spans="1:9">
       <c r="A244">
-        <v>1694275200</v>
+        <v>1694264400</v>
       </c>
       <c r="B244" t="s">
         <v>218</v>
@@ -8847,7 +8847,7 @@
     </row>
     <row r="245" spans="1:9">
       <c r="A245">
-        <v>1694278800</v>
+        <v>1694268000</v>
       </c>
       <c r="B245" t="s">
         <v>219</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="246" spans="1:9">
       <c r="A246">
-        <v>1694282400</v>
+        <v>1694271600</v>
       </c>
       <c r="B246" t="s">
         <v>220</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="247" spans="1:9">
       <c r="A247">
-        <v>1694286000</v>
+        <v>1694275200</v>
       </c>
       <c r="B247" t="s">
         <v>221</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="248" spans="1:9">
       <c r="A248">
-        <v>1694289600</v>
+        <v>1694278800</v>
       </c>
       <c r="B248" t="s">
         <v>222</v>
@@ -8951,7 +8951,7 @@
     </row>
     <row r="249" spans="1:9">
       <c r="A249">
-        <v>1694293200</v>
+        <v>1694282400</v>
       </c>
       <c r="B249" t="s">
         <v>223</v>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="250" spans="1:9">
       <c r="A250">
-        <v>1694296800</v>
+        <v>1694286000</v>
       </c>
       <c r="B250" t="s">
         <v>224</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="251" spans="1:9">
       <c r="A251">
-        <v>1694300400</v>
+        <v>1694289600</v>
       </c>
       <c r="B251" t="s">
         <v>225</v>
@@ -9029,7 +9029,7 @@
     </row>
     <row r="252" spans="1:9">
       <c r="A252">
-        <v>1694304000</v>
+        <v>1694293200</v>
       </c>
       <c r="B252" t="s">
         <v>226</v>
@@ -9055,7 +9055,7 @@
     </row>
     <row r="253" spans="1:9">
       <c r="A253">
-        <v>1694304000</v>
+        <v>1694293200</v>
       </c>
       <c r="B253" t="s">
         <v>226</v>
@@ -9081,7 +9081,7 @@
     </row>
     <row r="254" spans="1:9">
       <c r="A254">
-        <v>1694307600</v>
+        <v>1694296800</v>
       </c>
       <c r="B254" t="s">
         <v>227</v>
@@ -9107,7 +9107,7 @@
     </row>
     <row r="255" spans="1:9">
       <c r="A255">
-        <v>1694307600</v>
+        <v>1694296800</v>
       </c>
       <c r="B255" t="s">
         <v>227</v>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="256" spans="1:9">
       <c r="A256">
-        <v>1694311200</v>
+        <v>1694300400</v>
       </c>
       <c r="B256" t="s">
         <v>228</v>
@@ -9159,7 +9159,7 @@
     </row>
     <row r="257" spans="1:9">
       <c r="A257">
-        <v>1694311200</v>
+        <v>1694300400</v>
       </c>
       <c r="B257" t="s">
         <v>228</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="258" spans="1:9">
       <c r="A258">
-        <v>1694314800</v>
+        <v>1694304000</v>
       </c>
       <c r="B258" t="s">
         <v>229</v>
@@ -9211,7 +9211,7 @@
     </row>
     <row r="259" spans="1:9">
       <c r="A259">
-        <v>1694314800</v>
+        <v>1694304000</v>
       </c>
       <c r="B259" t="s">
         <v>229</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="260" spans="1:9">
       <c r="A260">
-        <v>1694318400</v>
+        <v>1694307600</v>
       </c>
       <c r="B260" t="s">
         <v>230</v>
@@ -9263,7 +9263,7 @@
     </row>
     <row r="261" spans="1:9">
       <c r="A261">
-        <v>1694318400</v>
+        <v>1694307600</v>
       </c>
       <c r="B261" t="s">
         <v>230</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="262" spans="1:9">
       <c r="A262">
-        <v>1694322000</v>
+        <v>1694311200</v>
       </c>
       <c r="B262" t="s">
         <v>231</v>
@@ -9315,7 +9315,7 @@
     </row>
     <row r="263" spans="1:9">
       <c r="A263">
-        <v>1694322000</v>
+        <v>1694311200</v>
       </c>
       <c r="B263" t="s">
         <v>231</v>
@@ -9341,7 +9341,7 @@
     </row>
     <row r="264" spans="1:9">
       <c r="A264">
-        <v>1694325600</v>
+        <v>1694314800</v>
       </c>
       <c r="B264" t="s">
         <v>232</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="265" spans="1:9">
       <c r="A265">
-        <v>1694325600</v>
+        <v>1694314800</v>
       </c>
       <c r="B265" t="s">
         <v>232</v>
@@ -9393,7 +9393,7 @@
     </row>
     <row r="266" spans="1:9">
       <c r="A266">
-        <v>1694329200</v>
+        <v>1694318400</v>
       </c>
       <c r="B266" t="s">
         <v>233</v>
@@ -9419,7 +9419,7 @@
     </row>
     <row r="267" spans="1:9">
       <c r="A267">
-        <v>1694332800</v>
+        <v>1694322000</v>
       </c>
       <c r="B267" t="s">
         <v>234</v>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="268" spans="1:9">
       <c r="A268">
-        <v>1694336400</v>
+        <v>1694325600</v>
       </c>
       <c r="B268" t="s">
         <v>235</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="269" spans="1:9">
       <c r="A269">
-        <v>1694340000</v>
+        <v>1694329200</v>
       </c>
       <c r="B269" t="s">
         <v>236</v>
@@ -9497,7 +9497,7 @@
     </row>
     <row r="270" spans="1:9">
       <c r="A270">
-        <v>1694343600</v>
+        <v>1694332800</v>
       </c>
       <c r="B270" t="s">
         <v>237</v>
@@ -9523,7 +9523,7 @@
     </row>
     <row r="271" spans="1:9">
       <c r="A271">
-        <v>1694347200</v>
+        <v>1694336400</v>
       </c>
       <c r="B271" t="s">
         <v>238</v>
@@ -9549,7 +9549,7 @@
     </row>
     <row r="272" spans="1:9">
       <c r="A272">
-        <v>1694350800</v>
+        <v>1694340000</v>
       </c>
       <c r="B272" t="s">
         <v>239</v>
@@ -9575,7 +9575,7 @@
     </row>
     <row r="273" spans="1:9">
       <c r="A273">
-        <v>1694354400</v>
+        <v>1694343600</v>
       </c>
       <c r="B273" t="s">
         <v>240</v>
@@ -9601,7 +9601,7 @@
     </row>
     <row r="274" spans="1:9">
       <c r="A274">
-        <v>1694358000</v>
+        <v>1694347200</v>
       </c>
       <c r="B274" t="s">
         <v>241</v>
@@ -9627,7 +9627,7 @@
     </row>
     <row r="275" spans="1:9">
       <c r="A275">
-        <v>1694361600</v>
+        <v>1694350800</v>
       </c>
       <c r="B275" t="s">
         <v>242</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="276" spans="1:9">
       <c r="A276">
-        <v>1694365200</v>
+        <v>1694354400</v>
       </c>
       <c r="B276" t="s">
         <v>243</v>
@@ -9679,7 +9679,7 @@
     </row>
     <row r="277" spans="1:9">
       <c r="A277">
-        <v>1694368800</v>
+        <v>1694358000</v>
       </c>
       <c r="B277" t="s">
         <v>244</v>
@@ -9705,7 +9705,7 @@
     </row>
     <row r="278" spans="1:9">
       <c r="A278">
-        <v>1694372400</v>
+        <v>1694361600</v>
       </c>
       <c r="B278" t="s">
         <v>245</v>
@@ -9731,7 +9731,7 @@
     </row>
     <row r="279" spans="1:9">
       <c r="A279">
-        <v>1694376000</v>
+        <v>1694365200</v>
       </c>
       <c r="B279" t="s">
         <v>246</v>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="280" spans="1:9">
       <c r="A280">
-        <v>1694379600</v>
+        <v>1694368800</v>
       </c>
       <c r="B280" t="s">
         <v>247</v>
@@ -9783,7 +9783,7 @@
     </row>
     <row r="281" spans="1:9">
       <c r="A281">
-        <v>1694383200</v>
+        <v>1694372400</v>
       </c>
       <c r="B281" t="s">
         <v>248</v>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="282" spans="1:9">
       <c r="A282">
-        <v>1694386800</v>
+        <v>1694376000</v>
       </c>
       <c r="B282" t="s">
         <v>249</v>
@@ -9835,7 +9835,7 @@
     </row>
     <row r="283" spans="1:9">
       <c r="A283">
-        <v>1694390400</v>
+        <v>1694379600</v>
       </c>
       <c r="B283" t="s">
         <v>250</v>
@@ -9861,7 +9861,7 @@
     </row>
     <row r="284" spans="1:9">
       <c r="A284">
-        <v>1694394000</v>
+        <v>1694383200</v>
       </c>
       <c r="B284" t="s">
         <v>251</v>
@@ -9887,7 +9887,7 @@
     </row>
     <row r="285" spans="1:9">
       <c r="A285">
-        <v>1694394000</v>
+        <v>1694383200</v>
       </c>
       <c r="B285" t="s">
         <v>251</v>
@@ -9913,7 +9913,7 @@
     </row>
     <row r="286" spans="1:9">
       <c r="A286">
-        <v>1694397600</v>
+        <v>1694386800</v>
       </c>
       <c r="B286" t="s">
         <v>252</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="287" spans="1:9">
       <c r="A287">
-        <v>1694401200</v>
+        <v>1694390400</v>
       </c>
       <c r="B287" t="s">
         <v>253</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="288" spans="1:9">
       <c r="A288">
-        <v>1694404800</v>
+        <v>1694394000</v>
       </c>
       <c r="B288" t="s">
         <v>254</v>
@@ -9991,7 +9991,7 @@
     </row>
     <row r="289" spans="1:9">
       <c r="A289">
-        <v>1694408400</v>
+        <v>1694397600</v>
       </c>
       <c r="B289" t="s">
         <v>255</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="290" spans="1:9">
       <c r="A290">
-        <v>1694412000</v>
+        <v>1694401200</v>
       </c>
       <c r="B290" t="s">
         <v>256</v>
@@ -10043,7 +10043,7 @@
     </row>
     <row r="291" spans="1:9">
       <c r="A291">
-        <v>1694415600</v>
+        <v>1694404800</v>
       </c>
       <c r="B291" t="s">
         <v>257</v>
@@ -10069,7 +10069,7 @@
     </row>
     <row r="292" spans="1:9">
       <c r="A292">
-        <v>1694419200</v>
+        <v>1694408400</v>
       </c>
       <c r="B292" t="s">
         <v>258</v>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="293" spans="1:9">
       <c r="A293">
-        <v>1694422800</v>
+        <v>1694412000</v>
       </c>
       <c r="B293" t="s">
         <v>259</v>
@@ -10121,7 +10121,7 @@
     </row>
     <row r="294" spans="1:9">
       <c r="A294">
-        <v>1694426400</v>
+        <v>1694415600</v>
       </c>
       <c r="B294" t="s">
         <v>260</v>
@@ -10147,7 +10147,7 @@
     </row>
     <row r="295" spans="1:9">
       <c r="A295">
-        <v>1694430000</v>
+        <v>1694419200</v>
       </c>
       <c r="B295" t="s">
         <v>261</v>
@@ -10173,7 +10173,7 @@
     </row>
     <row r="296" spans="1:9">
       <c r="A296">
-        <v>1694433600</v>
+        <v>1694422800</v>
       </c>
       <c r="B296" t="s">
         <v>262</v>
@@ -10199,7 +10199,7 @@
     </row>
     <row r="297" spans="1:9">
       <c r="A297">
-        <v>1694437200</v>
+        <v>1694426400</v>
       </c>
       <c r="B297" t="s">
         <v>263</v>
@@ -10225,7 +10225,7 @@
     </row>
     <row r="298" spans="1:9">
       <c r="A298">
-        <v>1694440800</v>
+        <v>1694430000</v>
       </c>
       <c r="B298" t="s">
         <v>264</v>
@@ -10251,7 +10251,7 @@
     </row>
     <row r="299" spans="1:9">
       <c r="A299">
-        <v>1694444400</v>
+        <v>1694433600</v>
       </c>
       <c r="B299" t="s">
         <v>265</v>
@@ -10277,7 +10277,7 @@
     </row>
     <row r="300" spans="1:9">
       <c r="A300">
-        <v>1694448000</v>
+        <v>1694437200</v>
       </c>
       <c r="B300" t="s">
         <v>266</v>
@@ -10303,7 +10303,7 @@
     </row>
     <row r="301" spans="1:9">
       <c r="A301">
-        <v>1694451600</v>
+        <v>1694440800</v>
       </c>
       <c r="B301" t="s">
         <v>267</v>
@@ -10329,7 +10329,7 @@
     </row>
     <row r="302" spans="1:9">
       <c r="A302">
-        <v>1694455200</v>
+        <v>1694444400</v>
       </c>
       <c r="B302" t="s">
         <v>268</v>
@@ -10355,7 +10355,7 @@
     </row>
     <row r="303" spans="1:9">
       <c r="A303">
-        <v>1694458800</v>
+        <v>1694448000</v>
       </c>
       <c r="B303" t="s">
         <v>269</v>
@@ -10381,7 +10381,7 @@
     </row>
     <row r="304" spans="1:9">
       <c r="A304">
-        <v>1694462400</v>
+        <v>1694451600</v>
       </c>
       <c r="B304" t="s">
         <v>270</v>
@@ -10407,7 +10407,7 @@
     </row>
     <row r="305" spans="1:9">
       <c r="A305">
-        <v>1694466000</v>
+        <v>1694455200</v>
       </c>
       <c r="B305" t="s">
         <v>271</v>
@@ -10433,7 +10433,7 @@
     </row>
     <row r="306" spans="1:9">
       <c r="A306">
-        <v>1694466000</v>
+        <v>1694455200</v>
       </c>
       <c r="B306" t="s">
         <v>271</v>
@@ -10459,7 +10459,7 @@
     </row>
     <row r="307" spans="1:9">
       <c r="A307">
-        <v>1694469600</v>
+        <v>1694458800</v>
       </c>
       <c r="B307" t="s">
         <v>272</v>
@@ -10485,7 +10485,7 @@
     </row>
     <row r="308" spans="1:9">
       <c r="A308">
-        <v>1694473200</v>
+        <v>1694462400</v>
       </c>
       <c r="B308" t="s">
         <v>273</v>
@@ -10511,7 +10511,7 @@
     </row>
     <row r="309" spans="1:9">
       <c r="A309">
-        <v>1694476800</v>
+        <v>1694466000</v>
       </c>
       <c r="B309" t="s">
         <v>274</v>
@@ -10537,7 +10537,7 @@
     </row>
     <row r="310" spans="1:9">
       <c r="A310">
-        <v>1694480400</v>
+        <v>1694469600</v>
       </c>
       <c r="B310" t="s">
         <v>275</v>
@@ -10563,7 +10563,7 @@
     </row>
     <row r="311" spans="1:9">
       <c r="A311">
-        <v>1694484000</v>
+        <v>1694473200</v>
       </c>
       <c r="B311" t="s">
         <v>276</v>
@@ -10589,7 +10589,7 @@
     </row>
     <row r="312" spans="1:9">
       <c r="A312">
-        <v>1694487600</v>
+        <v>1694476800</v>
       </c>
       <c r="B312" t="s">
         <v>277</v>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="313" spans="1:9">
       <c r="A313">
-        <v>1694491200</v>
+        <v>1694480400</v>
       </c>
       <c r="B313" t="s">
         <v>278</v>
@@ -10641,7 +10641,7 @@
     </row>
     <row r="314" spans="1:9">
       <c r="A314">
-        <v>1694494800</v>
+        <v>1694484000</v>
       </c>
       <c r="B314" t="s">
         <v>279</v>
@@ -10667,7 +10667,7 @@
     </row>
     <row r="315" spans="1:9">
       <c r="A315">
-        <v>1694498400</v>
+        <v>1694487600</v>
       </c>
       <c r="B315" t="s">
         <v>280</v>
@@ -10693,7 +10693,7 @@
     </row>
     <row r="316" spans="1:9">
       <c r="A316">
-        <v>1694502000</v>
+        <v>1694491200</v>
       </c>
       <c r="B316" t="s">
         <v>281</v>
@@ -10719,7 +10719,7 @@
     </row>
     <row r="317" spans="1:9">
       <c r="A317">
-        <v>1694505600</v>
+        <v>1694494800</v>
       </c>
       <c r="B317" t="s">
         <v>282</v>
@@ -10745,7 +10745,7 @@
     </row>
     <row r="318" spans="1:9">
       <c r="A318">
-        <v>1694509200</v>
+        <v>1694498400</v>
       </c>
       <c r="B318" t="s">
         <v>283</v>
@@ -10771,7 +10771,7 @@
     </row>
     <row r="319" spans="1:9">
       <c r="A319">
-        <v>1694512800</v>
+        <v>1694502000</v>
       </c>
       <c r="B319" t="s">
         <v>284</v>
@@ -10797,7 +10797,7 @@
     </row>
     <row r="320" spans="1:9">
       <c r="A320">
-        <v>1694516400</v>
+        <v>1694505600</v>
       </c>
       <c r="B320" t="s">
         <v>285</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="321" spans="1:9">
       <c r="A321">
-        <v>1694520000</v>
+        <v>1694509200</v>
       </c>
       <c r="B321" t="s">
         <v>286</v>
@@ -10849,7 +10849,7 @@
     </row>
     <row r="322" spans="1:9">
       <c r="A322">
-        <v>1694523600</v>
+        <v>1694512800</v>
       </c>
       <c r="B322" t="s">
         <v>287</v>
@@ -10875,7 +10875,7 @@
     </row>
     <row r="323" spans="1:9">
       <c r="A323">
-        <v>1694527200</v>
+        <v>1694516400</v>
       </c>
       <c r="B323" t="s">
         <v>288</v>
@@ -10901,7 +10901,7 @@
     </row>
     <row r="324" spans="1:9">
       <c r="A324">
-        <v>1694530800</v>
+        <v>1694520000</v>
       </c>
       <c r="B324" t="s">
         <v>289</v>
@@ -10927,7 +10927,7 @@
     </row>
     <row r="325" spans="1:9">
       <c r="A325">
-        <v>1694534400</v>
+        <v>1694523600</v>
       </c>
       <c r="B325" t="s">
         <v>290</v>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="326" spans="1:9">
       <c r="A326">
-        <v>1694538000</v>
+        <v>1694527200</v>
       </c>
       <c r="B326" t="s">
         <v>291</v>
@@ -10979,7 +10979,7 @@
     </row>
     <row r="327" spans="1:9">
       <c r="A327">
-        <v>1694541600</v>
+        <v>1694530800</v>
       </c>
       <c r="B327" t="s">
         <v>292</v>
@@ -11005,7 +11005,7 @@
     </row>
     <row r="328" spans="1:9">
       <c r="A328">
-        <v>1694545200</v>
+        <v>1694534400</v>
       </c>
       <c r="B328" t="s">
         <v>293</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="329" spans="1:9">
       <c r="A329">
-        <v>1694548800</v>
+        <v>1694538000</v>
       </c>
       <c r="B329" t="s">
         <v>294</v>
@@ -11057,7 +11057,7 @@
     </row>
     <row r="330" spans="1:9">
       <c r="A330">
-        <v>1694552400</v>
+        <v>1694541600</v>
       </c>
       <c r="B330" t="s">
         <v>295</v>
@@ -11083,7 +11083,7 @@
     </row>
     <row r="331" spans="1:9">
       <c r="A331">
-        <v>1694556000</v>
+        <v>1694545200</v>
       </c>
       <c r="B331" t="s">
         <v>296</v>
@@ -11109,7 +11109,7 @@
     </row>
     <row r="332" spans="1:9">
       <c r="A332">
-        <v>1694559600</v>
+        <v>1694548800</v>
       </c>
       <c r="B332" t="s">
         <v>297</v>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="333" spans="1:9">
       <c r="A333">
-        <v>1694563200</v>
+        <v>1694552400</v>
       </c>
       <c r="B333" t="s">
         <v>298</v>
@@ -11161,7 +11161,7 @@
     </row>
     <row r="334" spans="1:9">
       <c r="A334">
-        <v>1694566800</v>
+        <v>1694556000</v>
       </c>
       <c r="B334" t="s">
         <v>299</v>
@@ -11187,7 +11187,7 @@
     </row>
     <row r="335" spans="1:9">
       <c r="A335">
-        <v>1694570400</v>
+        <v>1694559600</v>
       </c>
       <c r="B335" t="s">
         <v>300</v>
@@ -11213,7 +11213,7 @@
     </row>
     <row r="336" spans="1:9">
       <c r="A336">
-        <v>1694574000</v>
+        <v>1694563200</v>
       </c>
       <c r="B336" t="s">
         <v>301</v>
@@ -11239,7 +11239,7 @@
     </row>
     <row r="337" spans="1:9">
       <c r="A337">
-        <v>1694577600</v>
+        <v>1694566800</v>
       </c>
       <c r="B337" t="s">
         <v>302</v>
@@ -11265,7 +11265,7 @@
     </row>
     <row r="338" spans="1:9">
       <c r="A338">
-        <v>1694581200</v>
+        <v>1694570400</v>
       </c>
       <c r="B338" t="s">
         <v>303</v>
@@ -11291,7 +11291,7 @@
     </row>
     <row r="339" spans="1:9">
       <c r="A339">
-        <v>1694584800</v>
+        <v>1694574000</v>
       </c>
       <c r="B339" t="s">
         <v>304</v>
@@ -11317,7 +11317,7 @@
     </row>
     <row r="340" spans="1:9">
       <c r="A340">
-        <v>1694588400</v>
+        <v>1694577600</v>
       </c>
       <c r="B340" t="s">
         <v>305</v>
@@ -11343,7 +11343,7 @@
     </row>
     <row r="341" spans="1:9">
       <c r="A341">
-        <v>1694592000</v>
+        <v>1694581200</v>
       </c>
       <c r="B341" t="s">
         <v>306</v>
@@ -11369,7 +11369,7 @@
     </row>
     <row r="342" spans="1:9">
       <c r="A342">
-        <v>1694595600</v>
+        <v>1694584800</v>
       </c>
       <c r="B342" t="s">
         <v>307</v>
@@ -11395,7 +11395,7 @@
     </row>
     <row r="343" spans="1:9">
       <c r="A343">
-        <v>1694599200</v>
+        <v>1694588400</v>
       </c>
       <c r="B343" t="s">
         <v>308</v>
@@ -11421,7 +11421,7 @@
     </row>
     <row r="344" spans="1:9">
       <c r="A344">
-        <v>1694602800</v>
+        <v>1694592000</v>
       </c>
       <c r="B344" t="s">
         <v>309</v>
@@ -11447,7 +11447,7 @@
     </row>
     <row r="345" spans="1:9">
       <c r="A345">
-        <v>1694606400</v>
+        <v>1694595600</v>
       </c>
       <c r="B345" t="s">
         <v>310</v>
@@ -11473,7 +11473,7 @@
     </row>
     <row r="346" spans="1:9">
       <c r="A346">
-        <v>1694610000</v>
+        <v>1694599200</v>
       </c>
       <c r="B346" t="s">
         <v>311</v>
@@ -11499,7 +11499,7 @@
     </row>
     <row r="347" spans="1:9">
       <c r="A347">
-        <v>1694613600</v>
+        <v>1694602800</v>
       </c>
       <c r="B347" t="s">
         <v>312</v>
@@ -11525,7 +11525,7 @@
     </row>
     <row r="348" spans="1:9">
       <c r="A348">
-        <v>1694613600</v>
+        <v>1694602800</v>
       </c>
       <c r="B348" t="s">
         <v>312</v>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349">
-        <v>1694617200</v>
+        <v>1694606400</v>
       </c>
       <c r="B349" t="s">
         <v>313</v>
@@ -11577,7 +11577,7 @@
     </row>
     <row r="350" spans="1:9">
       <c r="A350">
-        <v>1694620800</v>
+        <v>1694610000</v>
       </c>
       <c r="B350" t="s">
         <v>314</v>
@@ -11603,7 +11603,7 @@
     </row>
     <row r="351" spans="1:9">
       <c r="A351">
-        <v>1694624400</v>
+        <v>1694613600</v>
       </c>
       <c r="B351" t="s">
         <v>315</v>
@@ -11629,7 +11629,7 @@
     </row>
     <row r="352" spans="1:9">
       <c r="A352">
-        <v>1694628000</v>
+        <v>1694617200</v>
       </c>
       <c r="B352" t="s">
         <v>316</v>
@@ -11655,7 +11655,7 @@
     </row>
     <row r="353" spans="1:9">
       <c r="A353">
-        <v>1694631600</v>
+        <v>1694620800</v>
       </c>
       <c r="B353" t="s">
         <v>317</v>
@@ -11681,7 +11681,7 @@
     </row>
     <row r="354" spans="1:9">
       <c r="A354">
-        <v>1694635200</v>
+        <v>1694624400</v>
       </c>
       <c r="B354" t="s">
         <v>318</v>
@@ -11707,7 +11707,7 @@
     </row>
     <row r="355" spans="1:9">
       <c r="A355">
-        <v>1694638800</v>
+        <v>1694628000</v>
       </c>
       <c r="B355" t="s">
         <v>319</v>
@@ -11733,7 +11733,7 @@
     </row>
     <row r="356" spans="1:9">
       <c r="A356">
-        <v>1694638800</v>
+        <v>1694628000</v>
       </c>
       <c r="B356" t="s">
         <v>319</v>
@@ -11759,7 +11759,7 @@
     </row>
     <row r="357" spans="1:9">
       <c r="A357">
-        <v>1694642400</v>
+        <v>1694631600</v>
       </c>
       <c r="B357" t="s">
         <v>320</v>
@@ -11785,7 +11785,7 @@
     </row>
     <row r="358" spans="1:9">
       <c r="A358">
-        <v>1694642400</v>
+        <v>1694631600</v>
       </c>
       <c r="B358" t="s">
         <v>320</v>
@@ -11811,7 +11811,7 @@
     </row>
     <row r="359" spans="1:9">
       <c r="A359">
-        <v>1694646000</v>
+        <v>1694635200</v>
       </c>
       <c r="B359" t="s">
         <v>321</v>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="360" spans="1:9">
       <c r="A360">
-        <v>1694649600</v>
+        <v>1694638800</v>
       </c>
       <c r="B360" t="s">
         <v>322</v>
@@ -11863,7 +11863,7 @@
     </row>
     <row r="361" spans="1:9">
       <c r="A361">
-        <v>1694653200</v>
+        <v>1694642400</v>
       </c>
       <c r="B361" t="s">
         <v>323</v>
@@ -11889,7 +11889,7 @@
     </row>
     <row r="362" spans="1:9">
       <c r="A362">
-        <v>1694656800</v>
+        <v>1694646000</v>
       </c>
       <c r="B362" t="s">
         <v>324</v>
@@ -11915,7 +11915,7 @@
     </row>
     <row r="363" spans="1:9">
       <c r="A363">
-        <v>1694660400</v>
+        <v>1694649600</v>
       </c>
       <c r="B363" t="s">
         <v>325</v>
@@ -11941,7 +11941,7 @@
     </row>
     <row r="364" spans="1:9">
       <c r="A364">
-        <v>1694664000</v>
+        <v>1694653200</v>
       </c>
       <c r="B364" t="s">
         <v>326</v>
@@ -11967,7 +11967,7 @@
     </row>
     <row r="365" spans="1:9">
       <c r="A365">
-        <v>1694667600</v>
+        <v>1694656800</v>
       </c>
       <c r="B365" t="s">
         <v>327</v>
@@ -11993,7 +11993,7 @@
     </row>
     <row r="366" spans="1:9">
       <c r="A366">
-        <v>1694671200</v>
+        <v>1694660400</v>
       </c>
       <c r="B366" t="s">
         <v>328</v>
@@ -12019,7 +12019,7 @@
     </row>
     <row r="367" spans="1:9">
       <c r="A367">
-        <v>1694674800</v>
+        <v>1694664000</v>
       </c>
       <c r="B367" t="s">
         <v>329</v>
@@ -12045,7 +12045,7 @@
     </row>
     <row r="368" spans="1:9">
       <c r="A368">
-        <v>1694678400</v>
+        <v>1694667600</v>
       </c>
       <c r="B368" t="s">
         <v>330</v>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369">
-        <v>1694682000</v>
+        <v>1694671200</v>
       </c>
       <c r="B369" t="s">
         <v>331</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="370" spans="1:10">
       <c r="A370">
-        <v>1694516400</v>
+        <v>1694505600</v>
       </c>
       <c r="B370" t="s">
         <v>285</v>
@@ -12129,7 +12129,7 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371">
-        <v>1694520000</v>
+        <v>1694509200</v>
       </c>
       <c r="B371" t="s">
         <v>286</v>
@@ -12161,7 +12161,7 @@
     </row>
     <row r="372" spans="1:10">
       <c r="A372">
-        <v>1694523600</v>
+        <v>1694512800</v>
       </c>
       <c r="B372" t="s">
         <v>287</v>
@@ -12193,7 +12193,7 @@
     </row>
     <row r="373" spans="1:10">
       <c r="A373">
-        <v>1694527200</v>
+        <v>1694516400</v>
       </c>
       <c r="B373" t="s">
         <v>288</v>
@@ -12225,7 +12225,7 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374">
-        <v>1694530800</v>
+        <v>1694520000</v>
       </c>
       <c r="B374" t="s">
         <v>289</v>
@@ -12257,7 +12257,7 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375">
-        <v>1694534400</v>
+        <v>1694523600</v>
       </c>
       <c r="B375" t="s">
         <v>290</v>
@@ -12289,7 +12289,7 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376">
-        <v>1694538000</v>
+        <v>1694527200</v>
       </c>
       <c r="B376" t="s">
         <v>291</v>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377">
-        <v>1694541600</v>
+        <v>1694530800</v>
       </c>
       <c r="B377" t="s">
         <v>292</v>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378">
-        <v>1694545200</v>
+        <v>1694534400</v>
       </c>
       <c r="B378" t="s">
         <v>293</v>
@@ -12385,7 +12385,7 @@
     </row>
     <row r="379" spans="1:10">
       <c r="A379">
-        <v>1694548800</v>
+        <v>1694538000</v>
       </c>
       <c r="B379" t="s">
         <v>294</v>
@@ -12417,7 +12417,7 @@
     </row>
     <row r="380" spans="1:10">
       <c r="A380">
-        <v>1694552400</v>
+        <v>1694541600</v>
       </c>
       <c r="B380" t="s">
         <v>295</v>
@@ -12449,7 +12449,7 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381">
-        <v>1694556000</v>
+        <v>1694545200</v>
       </c>
       <c r="B381" t="s">
         <v>296</v>
@@ -12481,7 +12481,7 @@
     </row>
     <row r="382" spans="1:10">
       <c r="A382">
-        <v>1694559600</v>
+        <v>1694548800</v>
       </c>
       <c r="B382" t="s">
         <v>297</v>
@@ -12513,7 +12513,7 @@
     </row>
     <row r="383" spans="1:10">
       <c r="A383">
-        <v>1694563200</v>
+        <v>1694552400</v>
       </c>
       <c r="B383" t="s">
         <v>298</v>
@@ -12545,7 +12545,7 @@
     </row>
     <row r="384" spans="1:10">
       <c r="A384">
-        <v>1694566800</v>
+        <v>1694556000</v>
       </c>
       <c r="B384" t="s">
         <v>299</v>
@@ -12577,7 +12577,7 @@
     </row>
     <row r="385" spans="1:10">
       <c r="A385">
-        <v>1694570400</v>
+        <v>1694559600</v>
       </c>
       <c r="B385" t="s">
         <v>300</v>
@@ -12609,7 +12609,7 @@
     </row>
     <row r="386" spans="1:10">
       <c r="A386">
-        <v>1694574000</v>
+        <v>1694563200</v>
       </c>
       <c r="B386" t="s">
         <v>301</v>
@@ -12641,7 +12641,7 @@
     </row>
     <row r="387" spans="1:10">
       <c r="A387">
-        <v>1694577600</v>
+        <v>1694566800</v>
       </c>
       <c r="B387" t="s">
         <v>302</v>
@@ -12673,7 +12673,7 @@
     </row>
     <row r="388" spans="1:10">
       <c r="A388">
-        <v>1694581200</v>
+        <v>1694570400</v>
       </c>
       <c r="B388" t="s">
         <v>303</v>
@@ -12705,7 +12705,7 @@
     </row>
     <row r="389" spans="1:10">
       <c r="A389">
-        <v>1694584800</v>
+        <v>1694574000</v>
       </c>
       <c r="B389" t="s">
         <v>304</v>
@@ -12737,7 +12737,7 @@
     </row>
     <row r="390" spans="1:10">
       <c r="A390">
-        <v>1694588400</v>
+        <v>1694577600</v>
       </c>
       <c r="B390" t="s">
         <v>305</v>
@@ -12769,7 +12769,7 @@
     </row>
     <row r="391" spans="1:10">
       <c r="A391">
-        <v>1694592000</v>
+        <v>1694581200</v>
       </c>
       <c r="B391" t="s">
         <v>306</v>
@@ -12801,7 +12801,7 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392">
-        <v>1694595600</v>
+        <v>1694584800</v>
       </c>
       <c r="B392" t="s">
         <v>307</v>
@@ -12833,7 +12833,7 @@
     </row>
     <row r="393" spans="1:10">
       <c r="A393">
-        <v>1694599200</v>
+        <v>1694588400</v>
       </c>
       <c r="B393" t="s">
         <v>308</v>
@@ -12865,7 +12865,7 @@
     </row>
     <row r="394" spans="1:10">
       <c r="A394">
-        <v>1694602800</v>
+        <v>1694592000</v>
       </c>
       <c r="B394" t="s">
         <v>309</v>
@@ -12897,7 +12897,7 @@
     </row>
     <row r="395" spans="1:10">
       <c r="A395">
-        <v>1694606400</v>
+        <v>1694595600</v>
       </c>
       <c r="B395" t="s">
         <v>310</v>
@@ -12929,7 +12929,7 @@
     </row>
     <row r="396" spans="1:10">
       <c r="A396">
-        <v>1694610000</v>
+        <v>1694599200</v>
       </c>
       <c r="B396" t="s">
         <v>311</v>
@@ -12961,7 +12961,7 @@
     </row>
     <row r="397" spans="1:10">
       <c r="A397">
-        <v>1694613600</v>
+        <v>1694602800</v>
       </c>
       <c r="B397" t="s">
         <v>312</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="398" spans="1:10">
       <c r="A398">
-        <v>1694617200</v>
+        <v>1694606400</v>
       </c>
       <c r="B398" t="s">
         <v>313</v>
@@ -13025,7 +13025,7 @@
     </row>
     <row r="399" spans="1:10">
       <c r="A399">
-        <v>1694620800</v>
+        <v>1694610000</v>
       </c>
       <c r="B399" t="s">
         <v>314</v>
@@ -13057,7 +13057,7 @@
     </row>
     <row r="400" spans="1:10">
       <c r="A400">
-        <v>1694624400</v>
+        <v>1694613600</v>
       </c>
       <c r="B400" t="s">
         <v>315</v>
@@ -13089,7 +13089,7 @@
     </row>
     <row r="401" spans="1:10">
       <c r="A401">
-        <v>1694628000</v>
+        <v>1694617200</v>
       </c>
       <c r="B401" t="s">
         <v>316</v>
@@ -13121,7 +13121,7 @@
     </row>
     <row r="402" spans="1:10">
       <c r="A402">
-        <v>1694631600</v>
+        <v>1694620800</v>
       </c>
       <c r="B402" t="s">
         <v>317</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="403" spans="1:10">
       <c r="A403">
-        <v>1694635200</v>
+        <v>1694624400</v>
       </c>
       <c r="B403" t="s">
         <v>318</v>
@@ -13185,7 +13185,7 @@
     </row>
     <row r="404" spans="1:10">
       <c r="A404">
-        <v>1694638800</v>
+        <v>1694628000</v>
       </c>
       <c r="B404" t="s">
         <v>319</v>
@@ -13217,7 +13217,7 @@
     </row>
     <row r="405" spans="1:10">
       <c r="A405">
-        <v>1694642400</v>
+        <v>1694631600</v>
       </c>
       <c r="B405" t="s">
         <v>320</v>
@@ -13249,7 +13249,7 @@
     </row>
     <row r="406" spans="1:10">
       <c r="A406">
-        <v>1694646000</v>
+        <v>1694635200</v>
       </c>
       <c r="B406" t="s">
         <v>321</v>
@@ -13281,7 +13281,7 @@
     </row>
     <row r="407" spans="1:10">
       <c r="A407">
-        <v>1694649600</v>
+        <v>1694638800</v>
       </c>
       <c r="B407" t="s">
         <v>322</v>
@@ -13313,7 +13313,7 @@
     </row>
     <row r="408" spans="1:10">
       <c r="A408">
-        <v>1694653200</v>
+        <v>1694642400</v>
       </c>
       <c r="B408" t="s">
         <v>323</v>
@@ -13345,7 +13345,7 @@
     </row>
     <row r="409" spans="1:10">
       <c r="A409">
-        <v>1694656800</v>
+        <v>1694646000</v>
       </c>
       <c r="B409" t="s">
         <v>324</v>
@@ -13377,7 +13377,7 @@
     </row>
     <row r="410" spans="1:10">
       <c r="A410">
-        <v>1694660400</v>
+        <v>1694649600</v>
       </c>
       <c r="B410" t="s">
         <v>325</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="411" spans="1:10">
       <c r="A411">
-        <v>1694664000</v>
+        <v>1694653200</v>
       </c>
       <c r="B411" t="s">
         <v>326</v>
@@ -13441,7 +13441,7 @@
     </row>
     <row r="412" spans="1:10">
       <c r="A412">
-        <v>1694667600</v>
+        <v>1694656800</v>
       </c>
       <c r="B412" t="s">
         <v>327</v>
@@ -13473,7 +13473,7 @@
     </row>
     <row r="413" spans="1:10">
       <c r="A413">
-        <v>1694671200</v>
+        <v>1694660400</v>
       </c>
       <c r="B413" t="s">
         <v>328</v>
@@ -13505,7 +13505,7 @@
     </row>
     <row r="414" spans="1:10">
       <c r="A414">
-        <v>1694674800</v>
+        <v>1694664000</v>
       </c>
       <c r="B414" t="s">
         <v>329</v>
@@ -13537,7 +13537,7 @@
     </row>
     <row r="415" spans="1:10">
       <c r="A415">
-        <v>1694678400</v>
+        <v>1694667600</v>
       </c>
       <c r="B415" t="s">
         <v>330</v>
@@ -13569,7 +13569,7 @@
     </row>
     <row r="416" spans="1:10">
       <c r="A416">
-        <v>1694682000</v>
+        <v>1694671200</v>
       </c>
       <c r="B416" t="s">
         <v>331</v>
@@ -13601,7 +13601,7 @@
     </row>
     <row r="417" spans="1:10">
       <c r="A417">
-        <v>1694685600</v>
+        <v>1694674800</v>
       </c>
       <c r="B417" t="s">
         <v>332</v>
@@ -13633,7 +13633,7 @@
     </row>
     <row r="418" spans="1:10">
       <c r="A418">
-        <v>1694689200</v>
+        <v>1694678400</v>
       </c>
       <c r="B418" t="s">
         <v>333</v>
@@ -13665,7 +13665,7 @@
     </row>
     <row r="419" spans="1:10">
       <c r="A419">
-        <v>1694692800</v>
+        <v>1694682000</v>
       </c>
       <c r="B419" t="s">
         <v>334</v>
@@ -13697,7 +13697,7 @@
     </row>
     <row r="420" spans="1:10">
       <c r="A420">
-        <v>1694696400</v>
+        <v>1694685600</v>
       </c>
       <c r="B420" t="s">
         <v>335</v>
@@ -13729,7 +13729,7 @@
     </row>
     <row r="421" spans="1:10">
       <c r="A421">
-        <v>1694700000</v>
+        <v>1694689200</v>
       </c>
       <c r="B421" t="s">
         <v>336</v>
@@ -13761,7 +13761,7 @@
     </row>
     <row r="422" spans="1:10">
       <c r="A422">
-        <v>1694703600</v>
+        <v>1694692800</v>
       </c>
       <c r="B422" t="s">
         <v>337</v>
@@ -13793,7 +13793,7 @@
     </row>
     <row r="423" spans="1:10">
       <c r="A423">
-        <v>1694703600</v>
+        <v>1694692800</v>
       </c>
       <c r="B423" t="s">
         <v>337</v>
@@ -13825,7 +13825,7 @@
     </row>
     <row r="424" spans="1:10">
       <c r="A424">
-        <v>1694707200</v>
+        <v>1694696400</v>
       </c>
       <c r="B424" t="s">
         <v>338</v>
@@ -13857,7 +13857,7 @@
     </row>
     <row r="425" spans="1:10">
       <c r="A425">
-        <v>1694710800</v>
+        <v>1694700000</v>
       </c>
       <c r="B425" t="s">
         <v>339</v>
@@ -13889,7 +13889,7 @@
     </row>
     <row r="426" spans="1:10">
       <c r="A426">
-        <v>1694714400</v>
+        <v>1694703600</v>
       </c>
       <c r="B426" t="s">
         <v>340</v>
@@ -13921,7 +13921,7 @@
     </row>
     <row r="427" spans="1:10">
       <c r="A427">
-        <v>1694714400</v>
+        <v>1694703600</v>
       </c>
       <c r="B427" t="s">
         <v>340</v>
@@ -13953,7 +13953,7 @@
     </row>
     <row r="428" spans="1:10">
       <c r="A428">
-        <v>1694718000</v>
+        <v>1694707200</v>
       </c>
       <c r="B428" t="s">
         <v>341</v>
@@ -13985,7 +13985,7 @@
     </row>
     <row r="429" spans="1:10">
       <c r="A429">
-        <v>1694721600</v>
+        <v>1694710800</v>
       </c>
       <c r="B429" t="s">
         <v>342</v>
@@ -14017,7 +14017,7 @@
     </row>
     <row r="430" spans="1:10">
       <c r="A430">
-        <v>1694725200</v>
+        <v>1694714400</v>
       </c>
       <c r="B430" t="s">
         <v>343</v>
@@ -14049,7 +14049,7 @@
     </row>
     <row r="431" spans="1:10">
       <c r="A431">
-        <v>1694883600</v>
+        <v>1694872800</v>
       </c>
       <c r="B431" t="s">
         <v>344</v>
@@ -14081,7 +14081,7 @@
     </row>
     <row r="432" spans="1:10">
       <c r="A432">
-        <v>1694887200</v>
+        <v>1694876400</v>
       </c>
       <c r="B432" t="s">
         <v>345</v>
@@ -14113,7 +14113,7 @@
     </row>
     <row r="433" spans="1:10">
       <c r="A433">
-        <v>1694890800</v>
+        <v>1694880000</v>
       </c>
       <c r="B433" t="s">
         <v>346</v>
@@ -14145,7 +14145,7 @@
     </row>
     <row r="434" spans="1:10">
       <c r="A434">
-        <v>1694894400</v>
+        <v>1694883600</v>
       </c>
       <c r="B434" t="s">
         <v>347</v>
@@ -14177,7 +14177,7 @@
     </row>
     <row r="435" spans="1:10">
       <c r="A435">
-        <v>1694898000</v>
+        <v>1694887200</v>
       </c>
       <c r="B435" t="s">
         <v>348</v>
@@ -14209,7 +14209,7 @@
     </row>
     <row r="436" spans="1:10">
       <c r="A436">
-        <v>1694901600</v>
+        <v>1694890800</v>
       </c>
       <c r="B436" t="s">
         <v>349</v>
@@ -14241,7 +14241,7 @@
     </row>
     <row r="437" spans="1:10">
       <c r="A437">
-        <v>1694905200</v>
+        <v>1694894400</v>
       </c>
       <c r="B437" t="s">
         <v>350</v>
@@ -14273,7 +14273,7 @@
     </row>
     <row r="438" spans="1:10">
       <c r="A438">
-        <v>1694908800</v>
+        <v>1694898000</v>
       </c>
       <c r="B438" t="s">
         <v>351</v>
@@ -14305,7 +14305,7 @@
     </row>
     <row r="439" spans="1:10">
       <c r="A439">
-        <v>1694912400</v>
+        <v>1694901600</v>
       </c>
       <c r="B439" t="s">
         <v>352</v>
@@ -14337,7 +14337,7 @@
     </row>
     <row r="440" spans="1:10">
       <c r="A440">
-        <v>1694916000</v>
+        <v>1694905200</v>
       </c>
       <c r="B440" t="s">
         <v>353</v>
@@ -14369,7 +14369,7 @@
     </row>
     <row r="441" spans="1:10">
       <c r="A441">
-        <v>1694919600</v>
+        <v>1694908800</v>
       </c>
       <c r="B441" t="s">
         <v>354</v>
@@ -14401,7 +14401,7 @@
     </row>
     <row r="442" spans="1:10">
       <c r="A442">
-        <v>1694923200</v>
+        <v>1694912400</v>
       </c>
       <c r="B442" t="s">
         <v>355</v>
@@ -14433,7 +14433,7 @@
     </row>
     <row r="443" spans="1:10">
       <c r="A443">
-        <v>1694926800</v>
+        <v>1694916000</v>
       </c>
       <c r="B443" t="s">
         <v>356</v>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="444" spans="1:10">
       <c r="A444">
-        <v>1694930400</v>
+        <v>1694919600</v>
       </c>
       <c r="B444" t="s">
         <v>357</v>
@@ -14497,7 +14497,7 @@
     </row>
     <row r="445" spans="1:10">
       <c r="A445">
-        <v>1694934000</v>
+        <v>1694923200</v>
       </c>
       <c r="B445" t="s">
         <v>358</v>
@@ -14529,7 +14529,7 @@
     </row>
     <row r="446" spans="1:10">
       <c r="A446">
-        <v>1694937600</v>
+        <v>1694926800</v>
       </c>
       <c r="B446" t="s">
         <v>359</v>
@@ -14561,7 +14561,7 @@
     </row>
     <row r="447" spans="1:10">
       <c r="A447">
-        <v>1694941200</v>
+        <v>1694930400</v>
       </c>
       <c r="B447" t="s">
         <v>360</v>
@@ -14593,7 +14593,7 @@
     </row>
     <row r="448" spans="1:10">
       <c r="A448">
-        <v>1694944800</v>
+        <v>1694934000</v>
       </c>
       <c r="B448" t="s">
         <v>361</v>
@@ -14625,7 +14625,7 @@
     </row>
     <row r="449" spans="1:10">
       <c r="A449">
-        <v>1694948400</v>
+        <v>1694937600</v>
       </c>
       <c r="B449" t="s">
         <v>362</v>
@@ -14657,7 +14657,7 @@
     </row>
     <row r="450" spans="1:10">
       <c r="A450">
-        <v>1694952000</v>
+        <v>1694941200</v>
       </c>
       <c r="B450" t="s">
         <v>363</v>
@@ -14689,7 +14689,7 @@
     </row>
     <row r="451" spans="1:10">
       <c r="A451">
-        <v>1694955600</v>
+        <v>1694944800</v>
       </c>
       <c r="B451" t="s">
         <v>364</v>
@@ -14721,7 +14721,7 @@
     </row>
     <row r="452" spans="1:10">
       <c r="A452">
-        <v>1694959200</v>
+        <v>1694948400</v>
       </c>
       <c r="B452" t="s">
         <v>365</v>
@@ -14753,7 +14753,7 @@
     </row>
     <row r="453" spans="1:10">
       <c r="A453">
-        <v>1694962800</v>
+        <v>1694952000</v>
       </c>
       <c r="B453" t="s">
         <v>366</v>
@@ -14785,7 +14785,7 @@
     </row>
     <row r="454" spans="1:10">
       <c r="A454">
-        <v>1694966400</v>
+        <v>1694955600</v>
       </c>
       <c r="B454" t="s">
         <v>367</v>
@@ -14817,7 +14817,7 @@
     </row>
     <row r="455" spans="1:10">
       <c r="A455">
-        <v>1694970000</v>
+        <v>1694959200</v>
       </c>
       <c r="B455" t="s">
         <v>368</v>
@@ -14849,7 +14849,7 @@
     </row>
     <row r="456" spans="1:10">
       <c r="A456">
-        <v>1694973600</v>
+        <v>1694962800</v>
       </c>
       <c r="B456" t="s">
         <v>369</v>
@@ -14881,7 +14881,7 @@
     </row>
     <row r="457" spans="1:10">
       <c r="A457">
-        <v>1694977200</v>
+        <v>1694966400</v>
       </c>
       <c r="B457" t="s">
         <v>370</v>
@@ -14913,7 +14913,7 @@
     </row>
     <row r="458" spans="1:10">
       <c r="A458">
-        <v>1694980800</v>
+        <v>1694970000</v>
       </c>
       <c r="B458" t="s">
         <v>371</v>
@@ -14945,7 +14945,7 @@
     </row>
     <row r="459" spans="1:10">
       <c r="A459">
-        <v>1694984400</v>
+        <v>1694973600</v>
       </c>
       <c r="B459" t="s">
         <v>372</v>
@@ -14977,7 +14977,7 @@
     </row>
     <row r="460" spans="1:10">
       <c r="A460">
-        <v>1694988000</v>
+        <v>1694977200</v>
       </c>
       <c r="B460" t="s">
         <v>373</v>
@@ -15009,7 +15009,7 @@
     </row>
     <row r="461" spans="1:10">
       <c r="A461">
-        <v>1694991600</v>
+        <v>1694980800</v>
       </c>
       <c r="B461" t="s">
         <v>374</v>
@@ -15041,7 +15041,7 @@
     </row>
     <row r="462" spans="1:10">
       <c r="A462">
-        <v>1694995200</v>
+        <v>1694984400</v>
       </c>
       <c r="B462" t="s">
         <v>375</v>
@@ -15073,7 +15073,7 @@
     </row>
     <row r="463" spans="1:10">
       <c r="A463">
-        <v>1694998800</v>
+        <v>1694988000</v>
       </c>
       <c r="B463" t="s">
         <v>376</v>
@@ -15105,7 +15105,7 @@
     </row>
     <row r="464" spans="1:10">
       <c r="A464">
-        <v>1695002400</v>
+        <v>1694991600</v>
       </c>
       <c r="B464" t="s">
         <v>377</v>
@@ -15137,7 +15137,7 @@
     </row>
     <row r="465" spans="1:10">
       <c r="A465">
-        <v>1695006000</v>
+        <v>1694995200</v>
       </c>
       <c r="B465" t="s">
         <v>378</v>
@@ -15169,7 +15169,7 @@
     </row>
     <row r="466" spans="1:10">
       <c r="A466">
-        <v>1695009600</v>
+        <v>1694998800</v>
       </c>
       <c r="B466" t="s">
         <v>379</v>
@@ -15201,7 +15201,7 @@
     </row>
     <row r="467" spans="1:10">
       <c r="A467">
-        <v>1695013200</v>
+        <v>1695002400</v>
       </c>
       <c r="B467" t="s">
         <v>380</v>
@@ -15233,7 +15233,7 @@
     </row>
     <row r="468" spans="1:10">
       <c r="A468">
-        <v>1695016800</v>
+        <v>1695006000</v>
       </c>
       <c r="B468" t="s">
         <v>381</v>
@@ -15265,7 +15265,7 @@
     </row>
     <row r="469" spans="1:10">
       <c r="A469">
-        <v>1695020400</v>
+        <v>1695009600</v>
       </c>
       <c r="B469" t="s">
         <v>382</v>
@@ -15297,7 +15297,7 @@
     </row>
     <row r="470" spans="1:10">
       <c r="A470">
-        <v>1695024000</v>
+        <v>1695013200</v>
       </c>
       <c r="B470" t="s">
         <v>383</v>
@@ -15329,7 +15329,7 @@
     </row>
     <row r="471" spans="1:10">
       <c r="A471">
-        <v>1695027600</v>
+        <v>1695016800</v>
       </c>
       <c r="B471" t="s">
         <v>384</v>
@@ -15361,7 +15361,7 @@
     </row>
     <row r="472" spans="1:10">
       <c r="A472">
-        <v>1695031200</v>
+        <v>1695020400</v>
       </c>
       <c r="B472" t="s">
         <v>385</v>
@@ -15393,7 +15393,7 @@
     </row>
     <row r="473" spans="1:10">
       <c r="A473">
-        <v>1695034800</v>
+        <v>1695024000</v>
       </c>
       <c r="B473" t="s">
         <v>386</v>
@@ -15425,7 +15425,7 @@
     </row>
     <row r="474" spans="1:10">
       <c r="A474">
-        <v>1695038400</v>
+        <v>1695027600</v>
       </c>
       <c r="B474" t="s">
         <v>387</v>
@@ -15457,7 +15457,7 @@
     </row>
     <row r="475" spans="1:10">
       <c r="A475">
-        <v>1695042000</v>
+        <v>1695031200</v>
       </c>
       <c r="B475" t="s">
         <v>388</v>
@@ -15489,7 +15489,7 @@
     </row>
     <row r="476" spans="1:10">
       <c r="A476">
-        <v>1695045600</v>
+        <v>1695034800</v>
       </c>
       <c r="B476" t="s">
         <v>389</v>
@@ -15521,7 +15521,7 @@
     </row>
     <row r="477" spans="1:10">
       <c r="A477">
-        <v>1695049200</v>
+        <v>1695038400</v>
       </c>
       <c r="B477" t="s">
         <v>390</v>
@@ -15553,7 +15553,7 @@
     </row>
     <row r="478" spans="1:10">
       <c r="A478">
-        <v>1695052800</v>
+        <v>1695042000</v>
       </c>
       <c r="B478" t="s">
         <v>391</v>
@@ -15585,7 +15585,7 @@
     </row>
     <row r="479" spans="1:10">
       <c r="A479">
-        <v>1695056400</v>
+        <v>1695045600</v>
       </c>
       <c r="B479" t="s">
         <v>392</v>
@@ -15617,7 +15617,7 @@
     </row>
     <row r="480" spans="1:10">
       <c r="A480">
-        <v>1695060000</v>
+        <v>1695049200</v>
       </c>
       <c r="B480" t="s">
         <v>393</v>
@@ -15649,7 +15649,7 @@
     </row>
     <row r="481" spans="1:10">
       <c r="A481">
-        <v>1695063600</v>
+        <v>1695052800</v>
       </c>
       <c r="B481" t="s">
         <v>394</v>
@@ -15681,7 +15681,7 @@
     </row>
     <row r="482" spans="1:10">
       <c r="A482">
-        <v>1695067200</v>
+        <v>1695056400</v>
       </c>
       <c r="B482" t="s">
         <v>395</v>
@@ -15713,7 +15713,7 @@
     </row>
     <row r="483" spans="1:10">
       <c r="A483">
-        <v>1695070800</v>
+        <v>1695060000</v>
       </c>
       <c r="B483" t="s">
         <v>396</v>
@@ -15745,7 +15745,7 @@
     </row>
     <row r="484" spans="1:10">
       <c r="A484">
-        <v>1695074400</v>
+        <v>1695063600</v>
       </c>
       <c r="B484" t="s">
         <v>397</v>
@@ -15777,7 +15777,7 @@
     </row>
     <row r="485" spans="1:10">
       <c r="A485">
-        <v>1695078000</v>
+        <v>1695067200</v>
       </c>
       <c r="B485" t="s">
         <v>398</v>
@@ -15809,7 +15809,7 @@
     </row>
     <row r="486" spans="1:10">
       <c r="A486">
-        <v>1695081600</v>
+        <v>1695070800</v>
       </c>
       <c r="B486" t="s">
         <v>399</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="487" spans="1:10">
       <c r="A487">
-        <v>1695085200</v>
+        <v>1695074400</v>
       </c>
       <c r="B487" t="s">
         <v>400</v>
@@ -15873,7 +15873,7 @@
     </row>
     <row r="488" spans="1:10">
       <c r="A488">
-        <v>1695088800</v>
+        <v>1695078000</v>
       </c>
       <c r="B488" t="s">
         <v>401</v>
@@ -15905,7 +15905,7 @@
     </row>
     <row r="489" spans="1:10">
       <c r="A489">
-        <v>1695092400</v>
+        <v>1695081600</v>
       </c>
       <c r="B489" t="s">
         <v>402</v>
@@ -15937,7 +15937,7 @@
     </row>
     <row r="490" spans="1:10">
       <c r="A490">
-        <v>1695096000</v>
+        <v>1695085200</v>
       </c>
       <c r="B490" t="s">
         <v>403</v>
@@ -15969,7 +15969,7 @@
     </row>
     <row r="491" spans="1:10">
       <c r="A491">
-        <v>1695099600</v>
+        <v>1695088800</v>
       </c>
       <c r="B491" t="s">
         <v>404</v>
@@ -16001,7 +16001,7 @@
     </row>
     <row r="492" spans="1:10">
       <c r="A492">
-        <v>1695103200</v>
+        <v>1695092400</v>
       </c>
       <c r="B492" t="s">
         <v>405</v>
@@ -16033,7 +16033,7 @@
     </row>
     <row r="493" spans="1:10">
       <c r="A493">
-        <v>1695106800</v>
+        <v>1695096000</v>
       </c>
       <c r="B493" t="s">
         <v>406</v>
@@ -16065,7 +16065,7 @@
     </row>
     <row r="494" spans="1:10">
       <c r="A494">
-        <v>1695110400</v>
+        <v>1695099600</v>
       </c>
       <c r="B494" t="s">
         <v>407</v>
@@ -16097,7 +16097,7 @@
     </row>
     <row r="495" spans="1:10">
       <c r="A495">
-        <v>1695114000</v>
+        <v>1695103200</v>
       </c>
       <c r="B495" t="s">
         <v>408</v>
@@ -16129,7 +16129,7 @@
     </row>
     <row r="496" spans="1:10">
       <c r="A496">
-        <v>1695117600</v>
+        <v>1695106800</v>
       </c>
       <c r="B496" t="s">
         <v>409</v>
@@ -16161,7 +16161,7 @@
     </row>
     <row r="497" spans="1:10">
       <c r="A497">
-        <v>1695121200</v>
+        <v>1695110400</v>
       </c>
       <c r="B497" t="s">
         <v>410</v>
@@ -16193,7 +16193,7 @@
     </row>
     <row r="498" spans="1:10">
       <c r="A498">
-        <v>1695124800</v>
+        <v>1695114000</v>
       </c>
       <c r="B498" t="s">
         <v>411</v>
@@ -16225,7 +16225,7 @@
     </row>
     <row r="499" spans="1:10">
       <c r="A499">
-        <v>1695128400</v>
+        <v>1695117600</v>
       </c>
       <c r="B499" t="s">
         <v>412</v>
@@ -16257,7 +16257,7 @@
     </row>
     <row r="500" spans="1:10">
       <c r="A500">
-        <v>1695132000</v>
+        <v>1695121200</v>
       </c>
       <c r="B500" t="s">
         <v>413</v>
@@ -16289,7 +16289,7 @@
     </row>
     <row r="501" spans="1:10">
       <c r="A501">
-        <v>1695135600</v>
+        <v>1695124800</v>
       </c>
       <c r="B501" t="s">
         <v>414</v>
@@ -16321,7 +16321,7 @@
     </row>
     <row r="502" spans="1:10">
       <c r="A502">
-        <v>1695139200</v>
+        <v>1695128400</v>
       </c>
       <c r="B502" t="s">
         <v>415</v>
@@ -16353,7 +16353,7 @@
     </row>
     <row r="503" spans="1:10">
       <c r="A503">
-        <v>1695142800</v>
+        <v>1695132000</v>
       </c>
       <c r="B503" t="s">
         <v>416</v>
@@ -16385,7 +16385,7 @@
     </row>
     <row r="504" spans="1:10">
       <c r="A504">
-        <v>1695146400</v>
+        <v>1695135600</v>
       </c>
       <c r="B504" t="s">
         <v>417</v>
@@ -16417,7 +16417,7 @@
     </row>
     <row r="505" spans="1:10">
       <c r="A505">
-        <v>1695150000</v>
+        <v>1695139200</v>
       </c>
       <c r="B505" t="s">
         <v>418</v>
@@ -16449,7 +16449,7 @@
     </row>
     <row r="506" spans="1:10">
       <c r="A506">
-        <v>1695153600</v>
+        <v>1695142800</v>
       </c>
       <c r="B506" t="s">
         <v>419</v>
@@ -16481,7 +16481,7 @@
     </row>
     <row r="507" spans="1:10">
       <c r="A507">
-        <v>1695157200</v>
+        <v>1695146400</v>
       </c>
       <c r="B507" t="s">
         <v>420</v>
@@ -16513,7 +16513,7 @@
     </row>
     <row r="508" spans="1:10">
       <c r="A508">
-        <v>1695160800</v>
+        <v>1695150000</v>
       </c>
       <c r="B508" t="s">
         <v>421</v>
@@ -16545,7 +16545,7 @@
     </row>
     <row r="509" spans="1:10">
       <c r="A509">
-        <v>1695164400</v>
+        <v>1695153600</v>
       </c>
       <c r="B509" t="s">
         <v>422</v>
@@ -16577,7 +16577,7 @@
     </row>
     <row r="510" spans="1:10">
       <c r="A510">
-        <v>1695168000</v>
+        <v>1695157200</v>
       </c>
       <c r="B510" t="s">
         <v>423</v>
@@ -16609,7 +16609,7 @@
     </row>
     <row r="511" spans="1:10">
       <c r="A511">
-        <v>1695171600</v>
+        <v>1695160800</v>
       </c>
       <c r="B511" t="s">
         <v>424</v>
@@ -16641,7 +16641,7 @@
     </row>
     <row r="512" spans="1:10">
       <c r="A512">
-        <v>1695175200</v>
+        <v>1695164400</v>
       </c>
       <c r="B512" t="s">
         <v>425</v>
@@ -16673,7 +16673,7 @@
     </row>
     <row r="513" spans="1:10">
       <c r="A513">
-        <v>1695178800</v>
+        <v>1695168000</v>
       </c>
       <c r="B513" t="s">
         <v>426</v>
@@ -16705,7 +16705,7 @@
     </row>
     <row r="514" spans="1:10">
       <c r="A514">
-        <v>1695182400</v>
+        <v>1695171600</v>
       </c>
       <c r="B514" t="s">
         <v>427</v>
@@ -16737,7 +16737,7 @@
     </row>
     <row r="515" spans="1:10">
       <c r="A515">
-        <v>1695186000</v>
+        <v>1695175200</v>
       </c>
       <c r="B515" t="s">
         <v>428</v>
@@ -16769,7 +16769,7 @@
     </row>
     <row r="516" spans="1:10">
       <c r="A516">
-        <v>1695189600</v>
+        <v>1695178800</v>
       </c>
       <c r="B516" t="s">
         <v>429</v>
@@ -16801,7 +16801,7 @@
     </row>
     <row r="517" spans="1:10">
       <c r="A517">
-        <v>1695193200</v>
+        <v>1695182400</v>
       </c>
       <c r="B517" t="s">
         <v>430</v>
@@ -16833,7 +16833,7 @@
     </row>
     <row r="518" spans="1:10">
       <c r="A518">
-        <v>1695196800</v>
+        <v>1695186000</v>
       </c>
       <c r="B518" t="s">
         <v>431</v>
@@ -16865,7 +16865,7 @@
     </row>
     <row r="519" spans="1:10">
       <c r="A519">
-        <v>1695200400</v>
+        <v>1695189600</v>
       </c>
       <c r="B519" t="s">
         <v>432</v>
@@ -16897,7 +16897,7 @@
     </row>
     <row r="520" spans="1:10">
       <c r="A520">
-        <v>1695204000</v>
+        <v>1695193200</v>
       </c>
       <c r="B520" t="s">
         <v>433</v>
@@ -16929,7 +16929,7 @@
     </row>
     <row r="521" spans="1:10">
       <c r="A521">
-        <v>1695207600</v>
+        <v>1695196800</v>
       </c>
       <c r="B521" t="s">
         <v>434</v>
@@ -16961,7 +16961,7 @@
     </row>
     <row r="522" spans="1:10">
       <c r="A522">
-        <v>1695211200</v>
+        <v>1695200400</v>
       </c>
       <c r="B522" t="s">
         <v>435</v>
@@ -16993,7 +16993,7 @@
     </row>
     <row r="523" spans="1:10">
       <c r="A523">
-        <v>1695214800</v>
+        <v>1695204000</v>
       </c>
       <c r="B523" t="s">
         <v>436</v>
@@ -17025,7 +17025,7 @@
     </row>
     <row r="524" spans="1:10">
       <c r="A524">
-        <v>1695218400</v>
+        <v>1695207600</v>
       </c>
       <c r="B524" t="s">
         <v>437</v>
@@ -17057,7 +17057,7 @@
     </row>
     <row r="525" spans="1:10">
       <c r="A525">
-        <v>1695222000</v>
+        <v>1695211200</v>
       </c>
       <c r="B525" t="s">
         <v>438</v>
@@ -17089,7 +17089,7 @@
     </row>
     <row r="526" spans="1:10">
       <c r="A526">
-        <v>1695225600</v>
+        <v>1695214800</v>
       </c>
       <c r="B526" t="s">
         <v>439</v>
@@ -17121,7 +17121,7 @@
     </row>
     <row r="527" spans="1:10">
       <c r="A527">
-        <v>1695229200</v>
+        <v>1695218400</v>
       </c>
       <c r="B527" t="s">
         <v>440</v>
@@ -17153,7 +17153,7 @@
     </row>
     <row r="528" spans="1:10">
       <c r="A528">
-        <v>1695232800</v>
+        <v>1695222000</v>
       </c>
       <c r="B528" t="s">
         <v>441</v>
@@ -17185,7 +17185,7 @@
     </row>
     <row r="529" spans="1:10">
       <c r="A529">
-        <v>1695236400</v>
+        <v>1695225600</v>
       </c>
       <c r="B529" t="s">
         <v>442</v>
@@ -17217,7 +17217,7 @@
     </row>
     <row r="530" spans="1:10">
       <c r="A530">
-        <v>1695240000</v>
+        <v>1695229200</v>
       </c>
       <c r="B530" t="s">
         <v>443</v>
@@ -17249,7 +17249,7 @@
     </row>
     <row r="531" spans="1:10">
       <c r="A531">
-        <v>1695243600</v>
+        <v>1695232800</v>
       </c>
       <c r="B531" t="s">
         <v>444</v>
@@ -17281,7 +17281,7 @@
     </row>
     <row r="532" spans="1:10">
       <c r="A532">
-        <v>1695247200</v>
+        <v>1695236400</v>
       </c>
       <c r="B532" t="s">
         <v>445</v>
@@ -17313,7 +17313,7 @@
     </row>
     <row r="533" spans="1:10">
       <c r="A533">
-        <v>1695250800</v>
+        <v>1695240000</v>
       </c>
       <c r="B533" t="s">
         <v>446</v>
@@ -17345,7 +17345,7 @@
     </row>
     <row r="534" spans="1:10">
       <c r="A534">
-        <v>1695254400</v>
+        <v>1695243600</v>
       </c>
       <c r="B534" t="s">
         <v>447</v>
@@ -17377,7 +17377,7 @@
     </row>
     <row r="535" spans="1:10">
       <c r="A535">
-        <v>1695258000</v>
+        <v>1695247200</v>
       </c>
       <c r="B535" t="s">
         <v>448</v>
@@ -17409,7 +17409,7 @@
     </row>
     <row r="536" spans="1:10">
       <c r="A536">
-        <v>1695261600</v>
+        <v>1695250800</v>
       </c>
       <c r="B536" t="s">
         <v>449</v>
@@ -17441,7 +17441,7 @@
     </row>
     <row r="537" spans="1:10">
       <c r="A537">
-        <v>1695265200</v>
+        <v>1695254400</v>
       </c>
       <c r="B537" t="s">
         <v>450</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="538" spans="1:10">
       <c r="A538">
-        <v>1695268800</v>
+        <v>1695258000</v>
       </c>
       <c r="B538" t="s">
         <v>451</v>
@@ -17505,7 +17505,7 @@
     </row>
     <row r="539" spans="1:10">
       <c r="A539">
-        <v>1695272400</v>
+        <v>1695261600</v>
       </c>
       <c r="B539" t="s">
         <v>452</v>
@@ -17537,7 +17537,7 @@
     </row>
     <row r="540" spans="1:10">
       <c r="A540">
-        <v>1695276000</v>
+        <v>1695265200</v>
       </c>
       <c r="B540" t="s">
         <v>453</v>
@@ -17569,7 +17569,7 @@
     </row>
     <row r="541" spans="1:10">
       <c r="A541">
-        <v>1695279600</v>
+        <v>1695268800</v>
       </c>
       <c r="B541" t="s">
         <v>454</v>
@@ -17601,7 +17601,7 @@
     </row>
     <row r="542" spans="1:10">
       <c r="A542">
-        <v>1695283200</v>
+        <v>1695272400</v>
       </c>
       <c r="B542" t="s">
         <v>455</v>
@@ -17633,7 +17633,7 @@
     </row>
     <row r="543" spans="1:10">
       <c r="A543">
-        <v>1695286800</v>
+        <v>1695276000</v>
       </c>
       <c r="B543" t="s">
         <v>456</v>
@@ -17665,7 +17665,7 @@
     </row>
     <row r="544" spans="1:10">
       <c r="A544">
-        <v>1695290400</v>
+        <v>1695279600</v>
       </c>
       <c r="B544" t="s">
         <v>457</v>
@@ -17697,7 +17697,7 @@
     </row>
     <row r="545" spans="1:10">
       <c r="A545">
-        <v>1695294000</v>
+        <v>1695283200</v>
       </c>
       <c r="B545" t="s">
         <v>458</v>
@@ -17729,7 +17729,7 @@
     </row>
     <row r="546" spans="1:10">
       <c r="A546">
-        <v>1695297600</v>
+        <v>1695286800</v>
       </c>
       <c r="B546" t="s">
         <v>459</v>
@@ -17761,7 +17761,7 @@
     </row>
     <row r="547" spans="1:10">
       <c r="A547">
-        <v>1695301200</v>
+        <v>1695290400</v>
       </c>
       <c r="B547" t="s">
         <v>460</v>
@@ -17793,7 +17793,7 @@
     </row>
     <row r="548" spans="1:10">
       <c r="A548">
-        <v>1695304800</v>
+        <v>1695294000</v>
       </c>
       <c r="B548" t="s">
         <v>461</v>
@@ -17825,7 +17825,7 @@
     </row>
     <row r="549" spans="1:10">
       <c r="A549">
-        <v>1695308400</v>
+        <v>1695297600</v>
       </c>
       <c r="B549" t="s">
         <v>462</v>
@@ -17857,7 +17857,7 @@
     </row>
     <row r="550" spans="1:10">
       <c r="A550">
-        <v>1695312000</v>
+        <v>1695301200</v>
       </c>
       <c r="B550" t="s">
         <v>463</v>
@@ -17889,7 +17889,7 @@
     </row>
     <row r="551" spans="1:10">
       <c r="A551">
-        <v>1695315600</v>
+        <v>1695304800</v>
       </c>
       <c r="B551" t="s">
         <v>464</v>
@@ -17921,7 +17921,7 @@
     </row>
     <row r="552" spans="1:10">
       <c r="A552">
-        <v>1695319200</v>
+        <v>1695308400</v>
       </c>
       <c r="B552" t="s">
         <v>465</v>
@@ -17953,7 +17953,7 @@
     </row>
     <row r="553" spans="1:10">
       <c r="A553">
-        <v>1695322800</v>
+        <v>1695312000</v>
       </c>
       <c r="B553" t="s">
         <v>466</v>
@@ -17985,7 +17985,7 @@
     </row>
     <row r="554" spans="1:10">
       <c r="A554">
-        <v>1695326400</v>
+        <v>1695315600</v>
       </c>
       <c r="B554" t="s">
         <v>467</v>
@@ -18017,7 +18017,7 @@
     </row>
     <row r="555" spans="1:10">
       <c r="A555">
-        <v>1695330000</v>
+        <v>1695319200</v>
       </c>
       <c r="B555" t="s">
         <v>468</v>
@@ -18049,7 +18049,7 @@
     </row>
     <row r="556" spans="1:10">
       <c r="A556">
-        <v>1695333600</v>
+        <v>1695322800</v>
       </c>
       <c r="B556" t="s">
         <v>469</v>
@@ -18081,7 +18081,7 @@
     </row>
     <row r="557" spans="1:10">
       <c r="A557">
-        <v>1695337200</v>
+        <v>1695326400</v>
       </c>
       <c r="B557" t="s">
         <v>470</v>
@@ -18113,7 +18113,7 @@
     </row>
     <row r="558" spans="1:10">
       <c r="A558">
-        <v>1695340800</v>
+        <v>1695330000</v>
       </c>
       <c r="B558" t="s">
         <v>471</v>
@@ -18145,7 +18145,7 @@
     </row>
     <row r="559" spans="1:10">
       <c r="A559">
-        <v>1695344400</v>
+        <v>1695333600</v>
       </c>
       <c r="B559" t="s">
         <v>472</v>
@@ -18177,7 +18177,7 @@
     </row>
     <row r="560" spans="1:10">
       <c r="A560">
-        <v>1695348000</v>
+        <v>1695337200</v>
       </c>
       <c r="B560" t="s">
         <v>473</v>
@@ -18209,7 +18209,7 @@
     </row>
     <row r="561" spans="1:10">
       <c r="A561">
-        <v>1695351600</v>
+        <v>1695340800</v>
       </c>
       <c r="B561" t="s">
         <v>474</v>
@@ -18241,7 +18241,7 @@
     </row>
     <row r="562" spans="1:10">
       <c r="A562">
-        <v>1695355200</v>
+        <v>1695344400</v>
       </c>
       <c r="B562" t="s">
         <v>475</v>
@@ -18273,7 +18273,7 @@
     </row>
     <row r="563" spans="1:10">
       <c r="A563">
-        <v>1695358800</v>
+        <v>1695348000</v>
       </c>
       <c r="B563" t="s">
         <v>476</v>
@@ -18305,7 +18305,7 @@
     </row>
     <row r="564" spans="1:10">
       <c r="A564">
-        <v>1695362400</v>
+        <v>1695351600</v>
       </c>
       <c r="B564" t="s">
         <v>477</v>
@@ -18337,7 +18337,7 @@
     </row>
     <row r="565" spans="1:10">
       <c r="A565">
-        <v>1695366000</v>
+        <v>1695355200</v>
       </c>
       <c r="B565" t="s">
         <v>478</v>
@@ -18369,7 +18369,7 @@
     </row>
     <row r="566" spans="1:10">
       <c r="A566">
-        <v>1695369600</v>
+        <v>1695358800</v>
       </c>
       <c r="B566" t="s">
         <v>479</v>
@@ -18401,7 +18401,7 @@
     </row>
     <row r="567" spans="1:10">
       <c r="A567">
-        <v>1695373200</v>
+        <v>1695362400</v>
       </c>
       <c r="B567" t="s">
         <v>480</v>
@@ -18433,7 +18433,7 @@
     </row>
     <row r="568" spans="1:10">
       <c r="A568">
-        <v>1695376800</v>
+        <v>1695366000</v>
       </c>
       <c r="B568" t="s">
         <v>481</v>
@@ -18465,7 +18465,7 @@
     </row>
     <row r="569" spans="1:10">
       <c r="A569">
-        <v>1695380400</v>
+        <v>1695369600</v>
       </c>
       <c r="B569" t="s">
         <v>482</v>
@@ -18497,7 +18497,7 @@
     </row>
     <row r="570" spans="1:10">
       <c r="A570">
-        <v>1695384000</v>
+        <v>1695373200</v>
       </c>
       <c r="B570" t="s">
         <v>483</v>
@@ -18529,7 +18529,7 @@
     </row>
     <row r="571" spans="1:10">
       <c r="A571">
-        <v>1695387600</v>
+        <v>1695376800</v>
       </c>
       <c r="B571" t="s">
         <v>484</v>
@@ -18561,7 +18561,7 @@
     </row>
     <row r="572" spans="1:10">
       <c r="A572">
-        <v>1695391200</v>
+        <v>1695380400</v>
       </c>
       <c r="B572" t="s">
         <v>485</v>
@@ -18593,7 +18593,7 @@
     </row>
     <row r="573" spans="1:10">
       <c r="A573">
-        <v>1695394800</v>
+        <v>1695384000</v>
       </c>
       <c r="B573" t="s">
         <v>486</v>
@@ -18625,7 +18625,7 @@
     </row>
     <row r="574" spans="1:10">
       <c r="A574">
-        <v>1695398400</v>
+        <v>1695387600</v>
       </c>
       <c r="B574" t="s">
         <v>487</v>
@@ -18657,7 +18657,7 @@
     </row>
     <row r="575" spans="1:10">
       <c r="A575">
-        <v>1695402000</v>
+        <v>1695391200</v>
       </c>
       <c r="B575" t="s">
         <v>488</v>
@@ -18689,7 +18689,7 @@
     </row>
     <row r="576" spans="1:10">
       <c r="A576">
-        <v>1695405600</v>
+        <v>1695394800</v>
       </c>
       <c r="B576" t="s">
         <v>489</v>
@@ -18721,7 +18721,7 @@
     </row>
     <row r="577" spans="1:10">
       <c r="A577">
-        <v>1695409200</v>
+        <v>1695398400</v>
       </c>
       <c r="B577" t="s">
         <v>490</v>
@@ -18753,7 +18753,7 @@
     </row>
     <row r="578" spans="1:10">
       <c r="A578">
-        <v>1695412800</v>
+        <v>1695402000</v>
       </c>
       <c r="B578" t="s">
         <v>491</v>
@@ -18785,7 +18785,7 @@
     </row>
     <row r="579" spans="1:10">
       <c r="A579">
-        <v>1695416400</v>
+        <v>1695405600</v>
       </c>
       <c r="B579" t="s">
         <v>492</v>
@@ -18817,7 +18817,7 @@
     </row>
     <row r="580" spans="1:10">
       <c r="A580">
-        <v>1695416400</v>
+        <v>1695405600</v>
       </c>
       <c r="B580" t="s">
         <v>492</v>
@@ -18849,7 +18849,7 @@
     </row>
     <row r="581" spans="1:10">
       <c r="A581">
-        <v>1695420000</v>
+        <v>1695409200</v>
       </c>
       <c r="B581" t="s">
         <v>493</v>
@@ -18881,7 +18881,7 @@
     </row>
     <row r="582" spans="1:10">
       <c r="A582">
-        <v>1695420000</v>
+        <v>1695409200</v>
       </c>
       <c r="B582" t="s">
         <v>493</v>
@@ -18913,7 +18913,7 @@
     </row>
     <row r="583" spans="1:10">
       <c r="A583">
-        <v>1695423600</v>
+        <v>1695412800</v>
       </c>
       <c r="B583" t="s">
         <v>494</v>
@@ -18945,7 +18945,7 @@
     </row>
     <row r="584" spans="1:10">
       <c r="A584">
-        <v>1695427200</v>
+        <v>1695416400</v>
       </c>
       <c r="B584" t="s">
         <v>495</v>
@@ -18977,7 +18977,7 @@
     </row>
     <row r="585" spans="1:10">
       <c r="A585">
-        <v>1695430800</v>
+        <v>1695420000</v>
       </c>
       <c r="B585" t="s">
         <v>496</v>
@@ -19009,7 +19009,7 @@
     </row>
     <row r="586" spans="1:10">
       <c r="A586">
-        <v>1695430800</v>
+        <v>1695420000</v>
       </c>
       <c r="B586" t="s">
         <v>496</v>
@@ -19041,7 +19041,7 @@
     </row>
     <row r="587" spans="1:10">
       <c r="A587">
-        <v>1695434400</v>
+        <v>1695423600</v>
       </c>
       <c r="B587" t="s">
         <v>497</v>
@@ -19073,7 +19073,7 @@
     </row>
     <row r="588" spans="1:10">
       <c r="A588">
-        <v>1695438000</v>
+        <v>1695427200</v>
       </c>
       <c r="B588" t="s">
         <v>498</v>
@@ -19105,7 +19105,7 @@
     </row>
     <row r="589" spans="1:10">
       <c r="A589">
-        <v>1695441600</v>
+        <v>1695430800</v>
       </c>
       <c r="B589" t="s">
         <v>499</v>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="590" spans="1:10">
       <c r="A590">
-        <v>1695445200</v>
+        <v>1695434400</v>
       </c>
       <c r="B590" t="s">
         <v>500</v>
@@ -19169,7 +19169,7 @@
     </row>
     <row r="591" spans="1:10">
       <c r="A591">
-        <v>1695448800</v>
+        <v>1695438000</v>
       </c>
       <c r="B591" t="s">
         <v>501</v>
@@ -19201,7 +19201,7 @@
     </row>
     <row r="592" spans="1:10">
       <c r="A592">
-        <v>1695452400</v>
+        <v>1695441600</v>
       </c>
       <c r="B592" t="s">
         <v>502</v>
@@ -19233,7 +19233,7 @@
     </row>
     <row r="593" spans="1:10">
       <c r="A593">
-        <v>1695456000</v>
+        <v>1695445200</v>
       </c>
       <c r="B593" t="s">
         <v>503</v>
@@ -19265,7 +19265,7 @@
     </row>
     <row r="594" spans="1:10">
       <c r="A594">
-        <v>1695459600</v>
+        <v>1695448800</v>
       </c>
       <c r="B594" t="s">
         <v>504</v>
@@ -19297,7 +19297,7 @@
     </row>
     <row r="595" spans="1:10">
       <c r="A595">
-        <v>1695463200</v>
+        <v>1695452400</v>
       </c>
       <c r="B595" t="s">
         <v>505</v>
@@ -19329,7 +19329,7 @@
     </row>
     <row r="596" spans="1:10">
       <c r="A596">
-        <v>1695466800</v>
+        <v>1695456000</v>
       </c>
       <c r="B596" t="s">
         <v>506</v>
@@ -19361,7 +19361,7 @@
     </row>
     <row r="597" spans="1:10">
       <c r="A597">
-        <v>1695470400</v>
+        <v>1695459600</v>
       </c>
       <c r="B597" t="s">
         <v>507</v>
@@ -19393,7 +19393,7 @@
     </row>
     <row r="598" spans="1:10">
       <c r="A598">
-        <v>1695474000</v>
+        <v>1695463200</v>
       </c>
       <c r="B598" t="s">
         <v>508</v>
@@ -19425,7 +19425,7 @@
     </row>
     <row r="599" spans="1:10">
       <c r="A599">
-        <v>1695477600</v>
+        <v>1695466800</v>
       </c>
       <c r="B599" t="s">
         <v>509</v>
@@ -19457,7 +19457,7 @@
     </row>
     <row r="600" spans="1:10">
       <c r="A600">
-        <v>1695481200</v>
+        <v>1695470400</v>
       </c>
       <c r="B600" t="s">
         <v>510</v>
@@ -19489,7 +19489,7 @@
     </row>
     <row r="601" spans="1:10">
       <c r="A601">
-        <v>1695484800</v>
+        <v>1695474000</v>
       </c>
       <c r="B601" t="s">
         <v>511</v>
@@ -19521,7 +19521,7 @@
     </row>
     <row r="602" spans="1:10">
       <c r="A602">
-        <v>1695488400</v>
+        <v>1695477600</v>
       </c>
       <c r="B602" t="s">
         <v>512</v>
@@ -19553,7 +19553,7 @@
     </row>
     <row r="603" spans="1:10">
       <c r="A603">
-        <v>1695492000</v>
+        <v>1695481200</v>
       </c>
       <c r="B603" t="s">
         <v>513</v>
@@ -19585,7 +19585,7 @@
     </row>
     <row r="604" spans="1:10">
       <c r="A604">
-        <v>1695495600</v>
+        <v>1695484800</v>
       </c>
       <c r="B604" t="s">
         <v>514</v>
@@ -19617,7 +19617,7 @@
     </row>
     <row r="605" spans="1:10">
       <c r="A605">
-        <v>1695499200</v>
+        <v>1695488400</v>
       </c>
       <c r="B605" t="s">
         <v>515</v>
@@ -19649,7 +19649,7 @@
     </row>
     <row r="606" spans="1:10">
       <c r="A606">
-        <v>1695502800</v>
+        <v>1695492000</v>
       </c>
       <c r="B606" t="s">
         <v>516</v>
@@ -19681,7 +19681,7 @@
     </row>
     <row r="607" spans="1:10">
       <c r="A607">
-        <v>1695506400</v>
+        <v>1695495600</v>
       </c>
       <c r="B607" t="s">
         <v>517</v>
@@ -19713,7 +19713,7 @@
     </row>
     <row r="608" spans="1:10">
       <c r="A608">
-        <v>1695510000</v>
+        <v>1695499200</v>
       </c>
       <c r="B608" t="s">
         <v>518</v>
@@ -19745,7 +19745,7 @@
     </row>
     <row r="609" spans="1:10">
       <c r="A609">
-        <v>1695513600</v>
+        <v>1695502800</v>
       </c>
       <c r="B609" t="s">
         <v>519</v>
@@ -19777,7 +19777,7 @@
     </row>
     <row r="610" spans="1:10">
       <c r="A610">
-        <v>1695513600</v>
+        <v>1695502800</v>
       </c>
       <c r="B610" t="s">
         <v>519</v>
@@ -19809,7 +19809,7 @@
     </row>
     <row r="611" spans="1:10">
       <c r="A611">
-        <v>1695517200</v>
+        <v>1695506400</v>
       </c>
       <c r="B611" t="s">
         <v>520</v>
@@ -19841,7 +19841,7 @@
     </row>
     <row r="612" spans="1:10">
       <c r="A612">
-        <v>1695517200</v>
+        <v>1695506400</v>
       </c>
       <c r="B612" t="s">
         <v>520</v>
@@ -19873,7 +19873,7 @@
     </row>
     <row r="613" spans="1:10">
       <c r="A613">
-        <v>1695520800</v>
+        <v>1695510000</v>
       </c>
       <c r="B613" t="s">
         <v>521</v>
@@ -19905,7 +19905,7 @@
     </row>
     <row r="614" spans="1:10">
       <c r="A614">
-        <v>1695520800</v>
+        <v>1695510000</v>
       </c>
       <c r="B614" t="s">
         <v>521</v>
@@ -19937,7 +19937,7 @@
     </row>
     <row r="615" spans="1:10">
       <c r="A615">
-        <v>1695524400</v>
+        <v>1695513600</v>
       </c>
       <c r="B615" t="s">
         <v>522</v>
@@ -19969,7 +19969,7 @@
     </row>
     <row r="616" spans="1:10">
       <c r="A616">
-        <v>1695524400</v>
+        <v>1695513600</v>
       </c>
       <c r="B616" t="s">
         <v>522</v>
@@ -20001,7 +20001,7 @@
     </row>
     <row r="617" spans="1:10">
       <c r="A617">
-        <v>1695528000</v>
+        <v>1695517200</v>
       </c>
       <c r="B617" t="s">
         <v>523</v>
@@ -20033,7 +20033,7 @@
     </row>
     <row r="618" spans="1:10">
       <c r="A618">
-        <v>1695528000</v>
+        <v>1695517200</v>
       </c>
       <c r="B618" t="s">
         <v>523</v>
@@ -20065,7 +20065,7 @@
     </row>
     <row r="619" spans="1:10">
       <c r="A619">
-        <v>1695531600</v>
+        <v>1695520800</v>
       </c>
       <c r="B619" t="s">
         <v>524</v>
@@ -20097,7 +20097,7 @@
     </row>
     <row r="620" spans="1:10">
       <c r="A620">
-        <v>1695531600</v>
+        <v>1695520800</v>
       </c>
       <c r="B620" t="s">
         <v>524</v>
@@ -20129,7 +20129,7 @@
     </row>
     <row r="621" spans="1:10">
       <c r="A621">
-        <v>1695535200</v>
+        <v>1695524400</v>
       </c>
       <c r="B621" t="s">
         <v>525</v>
@@ -20161,7 +20161,7 @@
     </row>
     <row r="622" spans="1:10">
       <c r="A622">
-        <v>1695538800</v>
+        <v>1695528000</v>
       </c>
       <c r="B622" t="s">
         <v>526</v>
@@ -20193,7 +20193,7 @@
     </row>
     <row r="623" spans="1:10">
       <c r="A623">
-        <v>1695542400</v>
+        <v>1695531600</v>
       </c>
       <c r="B623" t="s">
         <v>527</v>
@@ -20225,7 +20225,7 @@
     </row>
     <row r="624" spans="1:10">
       <c r="A624">
-        <v>1695546000</v>
+        <v>1695535200</v>
       </c>
       <c r="B624" t="s">
         <v>528</v>
@@ -20257,7 +20257,7 @@
     </row>
     <row r="625" spans="1:10">
       <c r="A625">
-        <v>1695549600</v>
+        <v>1695538800</v>
       </c>
       <c r="B625" t="s">
         <v>529</v>
@@ -20289,7 +20289,7 @@
     </row>
     <row r="626" spans="1:10">
       <c r="A626">
-        <v>1695553200</v>
+        <v>1695542400</v>
       </c>
       <c r="B626" t="s">
         <v>530</v>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="627" spans="1:10">
       <c r="A627">
-        <v>1695556800</v>
+        <v>1695546000</v>
       </c>
       <c r="B627" t="s">
         <v>531</v>
@@ -20353,7 +20353,7 @@
     </row>
     <row r="628" spans="1:10">
       <c r="A628">
-        <v>1695560400</v>
+        <v>1695549600</v>
       </c>
       <c r="B628" t="s">
         <v>532</v>
@@ -20385,7 +20385,7 @@
     </row>
     <row r="629" spans="1:10">
       <c r="A629">
-        <v>1695564000</v>
+        <v>1695553200</v>
       </c>
       <c r="B629" t="s">
         <v>533</v>
@@ -20417,7 +20417,7 @@
     </row>
     <row r="630" spans="1:10">
       <c r="A630">
-        <v>1695567600</v>
+        <v>1695556800</v>
       </c>
       <c r="B630" t="s">
         <v>534</v>
@@ -20449,7 +20449,7 @@
     </row>
     <row r="631" spans="1:10">
       <c r="A631">
-        <v>1695571200</v>
+        <v>1695560400</v>
       </c>
       <c r="B631" t="s">
         <v>535</v>
@@ -20481,7 +20481,7 @@
     </row>
     <row r="632" spans="1:10">
       <c r="A632">
-        <v>1695574800</v>
+        <v>1695564000</v>
       </c>
       <c r="B632" t="s">
         <v>536</v>
@@ -20513,7 +20513,7 @@
     </row>
     <row r="633" spans="1:10">
       <c r="A633">
-        <v>1695578400</v>
+        <v>1695567600</v>
       </c>
       <c r="B633" t="s">
         <v>537</v>
@@ -20545,7 +20545,7 @@
     </row>
     <row r="634" spans="1:10">
       <c r="A634">
-        <v>1695582000</v>
+        <v>1695571200</v>
       </c>
       <c r="B634" t="s">
         <v>538</v>
@@ -20577,7 +20577,7 @@
     </row>
     <row r="635" spans="1:10">
       <c r="A635">
-        <v>1695585600</v>
+        <v>1695574800</v>
       </c>
       <c r="B635" t="s">
         <v>539</v>
@@ -20609,7 +20609,7 @@
     </row>
     <row r="636" spans="1:10">
       <c r="A636">
-        <v>1695589200</v>
+        <v>1695578400</v>
       </c>
       <c r="B636" t="s">
         <v>540</v>
@@ -20641,7 +20641,7 @@
     </row>
     <row r="637" spans="1:10">
       <c r="A637">
-        <v>1695589200</v>
+        <v>1695578400</v>
       </c>
       <c r="B637" t="s">
         <v>540</v>
@@ -20673,7 +20673,7 @@
     </row>
     <row r="638" spans="1:10">
       <c r="A638">
-        <v>1695592800</v>
+        <v>1695582000</v>
       </c>
       <c r="B638" t="s">
         <v>541</v>
@@ -20705,7 +20705,7 @@
     </row>
     <row r="639" spans="1:10">
       <c r="A639">
-        <v>1695596400</v>
+        <v>1695585600</v>
       </c>
       <c r="B639" t="s">
         <v>542</v>
@@ -20737,7 +20737,7 @@
     </row>
     <row r="640" spans="1:10">
       <c r="A640">
-        <v>1695600000</v>
+        <v>1695589200</v>
       </c>
       <c r="B640" t="s">
         <v>543</v>
@@ -20769,7 +20769,7 @@
     </row>
     <row r="641" spans="1:10">
       <c r="A641">
-        <v>1695603600</v>
+        <v>1695592800</v>
       </c>
       <c r="B641" t="s">
         <v>544</v>
@@ -20801,7 +20801,7 @@
     </row>
     <row r="642" spans="1:10">
       <c r="A642">
-        <v>1695607200</v>
+        <v>1695596400</v>
       </c>
       <c r="B642" t="s">
         <v>545</v>
@@ -20833,7 +20833,7 @@
     </row>
     <row r="643" spans="1:10">
       <c r="A643">
-        <v>1695610800</v>
+        <v>1695600000</v>
       </c>
       <c r="B643" t="s">
         <v>546</v>
@@ -20865,7 +20865,7 @@
     </row>
     <row r="644" spans="1:10">
       <c r="A644">
-        <v>1695614400</v>
+        <v>1695603600</v>
       </c>
       <c r="B644" t="s">
         <v>547</v>
@@ -20897,7 +20897,7 @@
     </row>
     <row r="645" spans="1:10">
       <c r="A645">
-        <v>1695618000</v>
+        <v>1695607200</v>
       </c>
       <c r="B645" t="s">
         <v>548</v>
@@ -20929,7 +20929,7 @@
     </row>
     <row r="646" spans="1:10">
       <c r="A646">
-        <v>1695621600</v>
+        <v>1695610800</v>
       </c>
       <c r="B646" t="s">
         <v>549</v>
@@ -20961,7 +20961,7 @@
     </row>
     <row r="647" spans="1:10">
       <c r="A647">
-        <v>1695625200</v>
+        <v>1695614400</v>
       </c>
       <c r="B647" t="s">
         <v>550</v>
@@ -20993,7 +20993,7 @@
     </row>
     <row r="648" spans="1:10">
       <c r="A648">
-        <v>1695628800</v>
+        <v>1695618000</v>
       </c>
       <c r="B648" t="s">
         <v>551</v>
@@ -21025,7 +21025,7 @@
     </row>
     <row r="649" spans="1:10">
       <c r="A649">
-        <v>1695632400</v>
+        <v>1695621600</v>
       </c>
       <c r="B649" t="s">
         <v>552</v>
@@ -21057,7 +21057,7 @@
     </row>
     <row r="650" spans="1:10">
       <c r="A650">
-        <v>1695636000</v>
+        <v>1695625200</v>
       </c>
       <c r="B650" t="s">
         <v>553</v>
@@ -21089,7 +21089,7 @@
     </row>
     <row r="651" spans="1:10">
       <c r="A651">
-        <v>1695639600</v>
+        <v>1695628800</v>
       </c>
       <c r="B651" t="s">
         <v>554</v>
@@ -21121,7 +21121,7 @@
     </row>
     <row r="652" spans="1:10">
       <c r="A652">
-        <v>1695643200</v>
+        <v>1695632400</v>
       </c>
       <c r="B652" t="s">
         <v>555</v>
@@ -21153,7 +21153,7 @@
     </row>
     <row r="653" spans="1:10">
       <c r="A653">
-        <v>1695646800</v>
+        <v>1695636000</v>
       </c>
       <c r="B653" t="s">
         <v>556</v>
@@ -21185,7 +21185,7 @@
     </row>
     <row r="654" spans="1:10">
       <c r="A654">
-        <v>1695618000</v>
+        <v>1695607200</v>
       </c>
       <c r="B654" t="s">
         <v>548</v>
@@ -21217,7 +21217,7 @@
     </row>
     <row r="655" spans="1:10">
       <c r="A655">
-        <v>1695650400</v>
+        <v>1695639600</v>
       </c>
       <c r="B655" t="s">
         <v>557</v>
@@ -21249,7 +21249,7 @@
     </row>
     <row r="656" spans="1:10">
       <c r="A656">
-        <v>1695654000</v>
+        <v>1695643200</v>
       </c>
       <c r="B656" t="s">
         <v>558</v>
@@ -21281,7 +21281,7 @@
     </row>
     <row r="657" spans="1:10">
       <c r="A657">
-        <v>1695657600</v>
+        <v>1695646800</v>
       </c>
       <c r="B657" t="s">
         <v>559</v>
@@ -21313,7 +21313,7 @@
     </row>
     <row r="658" spans="1:10">
       <c r="A658">
-        <v>1695661200</v>
+        <v>1695650400</v>
       </c>
       <c r="B658" t="s">
         <v>560</v>
@@ -21345,7 +21345,7 @@
     </row>
     <row r="659" spans="1:10">
       <c r="A659">
-        <v>1695664800</v>
+        <v>1695654000</v>
       </c>
       <c r="B659" t="s">
         <v>561</v>
@@ -21377,7 +21377,7 @@
     </row>
     <row r="660" spans="1:10">
       <c r="A660">
-        <v>1695668400</v>
+        <v>1695657600</v>
       </c>
       <c r="B660" t="s">
         <v>562</v>
@@ -21409,7 +21409,7 @@
     </row>
     <row r="661" spans="1:10">
       <c r="A661">
-        <v>1695672000</v>
+        <v>1695661200</v>
       </c>
       <c r="B661" t="s">
         <v>563</v>
@@ -21441,7 +21441,7 @@
     </row>
     <row r="662" spans="1:10">
       <c r="A662">
-        <v>1695675600</v>
+        <v>1695664800</v>
       </c>
       <c r="B662" t="s">
         <v>564</v>
@@ -21473,7 +21473,7 @@
     </row>
     <row r="663" spans="1:10">
       <c r="A663">
-        <v>1695675600</v>
+        <v>1695664800</v>
       </c>
       <c r="B663" t="s">
         <v>564</v>
@@ -21505,7 +21505,7 @@
     </row>
     <row r="664" spans="1:10">
       <c r="A664">
-        <v>1695679200</v>
+        <v>1695668400</v>
       </c>
       <c r="B664" t="s">
         <v>565</v>
@@ -21537,7 +21537,7 @@
     </row>
     <row r="665" spans="1:10">
       <c r="A665">
-        <v>1695682800</v>
+        <v>1695672000</v>
       </c>
       <c r="B665" t="s">
         <v>566</v>
@@ -21569,7 +21569,7 @@
     </row>
     <row r="666" spans="1:10">
       <c r="A666">
-        <v>1695686400</v>
+        <v>1695675600</v>
       </c>
       <c r="B666" t="s">
         <v>567</v>
@@ -21601,7 +21601,7 @@
     </row>
     <row r="667" spans="1:10">
       <c r="A667">
-        <v>1695690000</v>
+        <v>1695679200</v>
       </c>
       <c r="B667" t="s">
         <v>568</v>
@@ -21633,7 +21633,7 @@
     </row>
     <row r="668" spans="1:10">
       <c r="A668">
-        <v>1695693600</v>
+        <v>1695682800</v>
       </c>
       <c r="B668" t="s">
         <v>569</v>
@@ -21665,7 +21665,7 @@
     </row>
     <row r="669" spans="1:10">
       <c r="A669">
-        <v>1695697200</v>
+        <v>1695686400</v>
       </c>
       <c r="B669" t="s">
         <v>570</v>
@@ -21697,7 +21697,7 @@
     </row>
     <row r="670" spans="1:10">
       <c r="A670">
-        <v>1695700800</v>
+        <v>1695690000</v>
       </c>
       <c r="B670" t="s">
         <v>571</v>
@@ -21729,7 +21729,7 @@
     </row>
     <row r="671" spans="1:10">
       <c r="A671">
-        <v>1695704400</v>
+        <v>1695693600</v>
       </c>
       <c r="B671" t="s">
         <v>572</v>
@@ -21761,7 +21761,7 @@
     </row>
     <row r="672" spans="1:10">
       <c r="A672">
-        <v>1695708000</v>
+        <v>1695697200</v>
       </c>
       <c r="B672" t="s">
         <v>573</v>
@@ -21793,7 +21793,7 @@
     </row>
     <row r="673" spans="1:10">
       <c r="A673">
-        <v>1695711600</v>
+        <v>1695700800</v>
       </c>
       <c r="B673" t="s">
         <v>574</v>
@@ -21825,7 +21825,7 @@
     </row>
     <row r="674" spans="1:10">
       <c r="A674">
-        <v>1695715200</v>
+        <v>1695704400</v>
       </c>
       <c r="B674" t="s">
         <v>575</v>
@@ -21857,7 +21857,7 @@
     </row>
     <row r="675" spans="1:10">
       <c r="A675">
-        <v>1695718800</v>
+        <v>1695708000</v>
       </c>
       <c r="B675" t="s">
         <v>576</v>
@@ -21889,7 +21889,7 @@
     </row>
     <row r="676" spans="1:10">
       <c r="A676">
-        <v>1695722400</v>
+        <v>1695711600</v>
       </c>
       <c r="B676" t="s">
         <v>577</v>
@@ -21921,7 +21921,7 @@
     </row>
     <row r="677" spans="1:10">
       <c r="A677">
-        <v>1695646800</v>
+        <v>1695636000</v>
       </c>
       <c r="B677" t="s">
         <v>556</v>
@@ -21953,7 +21953,7 @@
     </row>
     <row r="678" spans="1:10">
       <c r="A678">
-        <v>1695726000</v>
+        <v>1695715200</v>
       </c>
       <c r="B678" t="s">
         <v>578</v>
@@ -21985,7 +21985,7 @@
     </row>
     <row r="679" spans="1:10">
       <c r="A679">
-        <v>1695729600</v>
+        <v>1695718800</v>
       </c>
       <c r="B679" t="s">
         <v>579</v>
@@ -22017,7 +22017,7 @@
     </row>
     <row r="680" spans="1:10">
       <c r="A680">
-        <v>1695733200</v>
+        <v>1695722400</v>
       </c>
       <c r="B680" t="s">
         <v>580</v>
@@ -22049,7 +22049,7 @@
     </row>
     <row r="681" spans="1:10">
       <c r="A681">
-        <v>1695736800</v>
+        <v>1695726000</v>
       </c>
       <c r="B681" t="s">
         <v>581</v>
@@ -22081,7 +22081,7 @@
     </row>
     <row r="682" spans="1:10">
       <c r="A682">
-        <v>1695740400</v>
+        <v>1695729600</v>
       </c>
       <c r="B682" t="s">
         <v>582</v>
@@ -22113,7 +22113,7 @@
     </row>
     <row r="683" spans="1:10">
       <c r="A683">
-        <v>1695744000</v>
+        <v>1695733200</v>
       </c>
       <c r="B683" t="s">
         <v>583</v>
@@ -22145,7 +22145,7 @@
     </row>
     <row r="684" spans="1:10">
       <c r="A684">
-        <v>1695747600</v>
+        <v>1695736800</v>
       </c>
       <c r="B684" t="s">
         <v>584</v>
@@ -22177,7 +22177,7 @@
     </row>
     <row r="685" spans="1:10">
       <c r="A685">
-        <v>1695751200</v>
+        <v>1695740400</v>
       </c>
       <c r="B685" t="s">
         <v>585</v>
@@ -22209,7 +22209,7 @@
     </row>
     <row r="686" spans="1:10">
       <c r="A686">
-        <v>1695754800</v>
+        <v>1695744000</v>
       </c>
       <c r="B686" t="s">
         <v>586</v>
@@ -22241,7 +22241,7 @@
     </row>
     <row r="687" spans="1:10">
       <c r="A687">
-        <v>1695758400</v>
+        <v>1695747600</v>
       </c>
       <c r="B687" t="s">
         <v>587</v>
@@ -22273,7 +22273,7 @@
     </row>
     <row r="688" spans="1:10">
       <c r="A688">
-        <v>1695762000</v>
+        <v>1695751200</v>
       </c>
       <c r="B688" t="s">
         <v>588</v>
@@ -22305,7 +22305,7 @@
     </row>
     <row r="689" spans="1:10">
       <c r="A689">
-        <v>1695765600</v>
+        <v>1695754800</v>
       </c>
       <c r="B689" t="s">
         <v>589</v>
@@ -22337,7 +22337,7 @@
     </row>
     <row r="690" spans="1:10">
       <c r="A690">
-        <v>1695769200</v>
+        <v>1695758400</v>
       </c>
       <c r="B690" t="s">
         <v>590</v>
@@ -22369,7 +22369,7 @@
     </row>
     <row r="691" spans="1:10">
       <c r="A691">
-        <v>1695772800</v>
+        <v>1695762000</v>
       </c>
       <c r="B691" t="s">
         <v>591</v>
@@ -22401,7 +22401,7 @@
     </row>
     <row r="692" spans="1:10">
       <c r="A692">
-        <v>1695776400</v>
+        <v>1695765600</v>
       </c>
       <c r="B692" t="s">
         <v>592</v>
@@ -22433,7 +22433,7 @@
     </row>
     <row r="693" spans="1:10">
       <c r="A693">
-        <v>1695780000</v>
+        <v>1695769200</v>
       </c>
       <c r="B693" t="s">
         <v>593</v>
@@ -22465,7 +22465,7 @@
     </row>
     <row r="694" spans="1:10">
       <c r="A694">
-        <v>1695783600</v>
+        <v>1695772800</v>
       </c>
       <c r="B694" t="s">
         <v>594</v>
@@ -22497,7 +22497,7 @@
     </row>
     <row r="695" spans="1:10">
       <c r="A695">
-        <v>1695787200</v>
+        <v>1695776400</v>
       </c>
       <c r="B695" t="s">
         <v>595</v>
@@ -22529,7 +22529,7 @@
     </row>
     <row r="696" spans="1:10">
       <c r="A696">
-        <v>1695790800</v>
+        <v>1695780000</v>
       </c>
       <c r="B696" t="s">
         <v>596</v>
@@ -22561,7 +22561,7 @@
     </row>
     <row r="697" spans="1:10">
       <c r="A697">
-        <v>1695794400</v>
+        <v>1695783600</v>
       </c>
       <c r="B697" t="s">
         <v>597</v>
@@ -22593,7 +22593,7 @@
     </row>
     <row r="698" spans="1:10">
       <c r="A698">
-        <v>1695798000</v>
+        <v>1695787200</v>
       </c>
       <c r="B698" t="s">
         <v>598</v>
@@ -22625,7 +22625,7 @@
     </row>
     <row r="699" spans="1:10">
       <c r="A699">
-        <v>1695801600</v>
+        <v>1695790800</v>
       </c>
       <c r="B699" t="s">
         <v>599</v>
@@ -22657,7 +22657,7 @@
     </row>
     <row r="700" spans="1:10">
       <c r="A700">
-        <v>1695805200</v>
+        <v>1695794400</v>
       </c>
       <c r="B700" t="s">
         <v>600</v>
@@ -22689,7 +22689,7 @@
     </row>
     <row r="701" spans="1:10">
       <c r="A701">
-        <v>1695808800</v>
+        <v>1695798000</v>
       </c>
       <c r="B701" t="s">
         <v>601</v>
@@ -22721,7 +22721,7 @@
     </row>
     <row r="702" spans="1:10">
       <c r="A702">
-        <v>1695812400</v>
+        <v>1695801600</v>
       </c>
       <c r="B702" t="s">
         <v>602</v>
@@ -22753,7 +22753,7 @@
     </row>
     <row r="703" spans="1:10">
       <c r="A703">
-        <v>1695816000</v>
+        <v>1695805200</v>
       </c>
       <c r="B703" t="s">
         <v>603</v>
@@ -22785,7 +22785,7 @@
     </row>
     <row r="704" spans="1:10">
       <c r="A704">
-        <v>1695819600</v>
+        <v>1695808800</v>
       </c>
       <c r="B704" t="s">
         <v>604</v>
@@ -22817,7 +22817,7 @@
     </row>
     <row r="705" spans="1:10">
       <c r="A705">
-        <v>1695823200</v>
+        <v>1695812400</v>
       </c>
       <c r="B705" t="s">
         <v>605</v>
@@ -22849,7 +22849,7 @@
     </row>
     <row r="706" spans="1:10">
       <c r="A706">
-        <v>1695826800</v>
+        <v>1695816000</v>
       </c>
       <c r="B706" t="s">
         <v>606</v>
@@ -22881,7 +22881,7 @@
     </row>
     <row r="707" spans="1:10">
       <c r="A707">
-        <v>1695830400</v>
+        <v>1695819600</v>
       </c>
       <c r="B707" t="s">
         <v>607</v>
@@ -22913,7 +22913,7 @@
     </row>
     <row r="708" spans="1:10">
       <c r="A708">
-        <v>1695834000</v>
+        <v>1695823200</v>
       </c>
       <c r="B708" t="s">
         <v>608</v>
@@ -22945,7 +22945,7 @@
     </row>
     <row r="709" spans="1:10">
       <c r="A709">
-        <v>1695837600</v>
+        <v>1695826800</v>
       </c>
       <c r="B709" t="s">
         <v>609</v>
@@ -22977,7 +22977,7 @@
     </row>
     <row r="710" spans="1:10">
       <c r="A710">
-        <v>1695841200</v>
+        <v>1695830400</v>
       </c>
       <c r="B710" t="s">
         <v>610</v>
@@ -23009,7 +23009,7 @@
     </row>
     <row r="711" spans="1:10">
       <c r="A711">
-        <v>1695844800</v>
+        <v>1695834000</v>
       </c>
       <c r="B711" t="s">
         <v>611</v>
@@ -23041,7 +23041,7 @@
     </row>
     <row r="712" spans="1:10">
       <c r="A712">
-        <v>1695848400</v>
+        <v>1695837600</v>
       </c>
       <c r="B712" t="s">
         <v>612</v>
@@ -23073,7 +23073,7 @@
     </row>
     <row r="713" spans="1:10">
       <c r="A713">
-        <v>1695848400</v>
+        <v>1695837600</v>
       </c>
       <c r="B713" t="s">
         <v>612</v>
@@ -23105,7 +23105,7 @@
     </row>
     <row r="714" spans="1:10">
       <c r="A714">
-        <v>1695852000</v>
+        <v>1695841200</v>
       </c>
       <c r="B714" t="s">
         <v>613</v>
@@ -23137,7 +23137,7 @@
     </row>
     <row r="715" spans="1:10">
       <c r="A715">
-        <v>1695855600</v>
+        <v>1695844800</v>
       </c>
       <c r="B715" t="s">
         <v>614</v>
@@ -23169,7 +23169,7 @@
     </row>
     <row r="716" spans="1:10">
       <c r="A716">
-        <v>1695859200</v>
+        <v>1695848400</v>
       </c>
       <c r="B716" t="s">
         <v>615</v>
@@ -23201,7 +23201,7 @@
     </row>
     <row r="717" spans="1:10">
       <c r="A717">
-        <v>1695862800</v>
+        <v>1695852000</v>
       </c>
       <c r="B717" t="s">
         <v>616</v>
@@ -23233,7 +23233,7 @@
     </row>
     <row r="718" spans="1:10">
       <c r="A718">
-        <v>1695866400</v>
+        <v>1695855600</v>
       </c>
       <c r="B718" t="s">
         <v>617</v>
@@ -23265,7 +23265,7 @@
     </row>
     <row r="719" spans="1:10">
       <c r="A719">
-        <v>1695870000</v>
+        <v>1695859200</v>
       </c>
       <c r="B719" t="s">
         <v>618</v>
@@ -23297,7 +23297,7 @@
     </row>
     <row r="720" spans="1:10">
       <c r="A720">
-        <v>1695873600</v>
+        <v>1695862800</v>
       </c>
       <c r="B720" t="s">
         <v>619</v>
@@ -23329,7 +23329,7 @@
     </row>
     <row r="721" spans="1:10">
       <c r="A721">
-        <v>1695877200</v>
+        <v>1695866400</v>
       </c>
       <c r="B721" t="s">
         <v>620</v>
@@ -23361,7 +23361,7 @@
     </row>
     <row r="722" spans="1:10">
       <c r="A722">
-        <v>1695880800</v>
+        <v>1695870000</v>
       </c>
       <c r="B722" t="s">
         <v>621</v>
@@ -23393,7 +23393,7 @@
     </row>
     <row r="723" spans="1:10">
       <c r="A723">
-        <v>1695884400</v>
+        <v>1695873600</v>
       </c>
       <c r="B723" t="s">
         <v>622</v>
@@ -23425,7 +23425,7 @@
     </row>
     <row r="724" spans="1:10">
       <c r="A724">
-        <v>1695888000</v>
+        <v>1695877200</v>
       </c>
       <c r="B724" t="s">
         <v>623</v>
@@ -23457,7 +23457,7 @@
     </row>
     <row r="725" spans="1:10">
       <c r="A725">
-        <v>1695891600</v>
+        <v>1695880800</v>
       </c>
       <c r="B725" t="s">
         <v>624</v>
@@ -23489,7 +23489,7 @@
     </row>
     <row r="726" spans="1:10">
       <c r="A726">
-        <v>1695895200</v>
+        <v>1695884400</v>
       </c>
       <c r="B726" t="s">
         <v>625</v>
@@ -23521,7 +23521,7 @@
     </row>
     <row r="727" spans="1:10">
       <c r="A727">
-        <v>1695898800</v>
+        <v>1695888000</v>
       </c>
       <c r="B727" t="s">
         <v>626</v>
@@ -23553,7 +23553,7 @@
     </row>
     <row r="728" spans="1:10">
       <c r="A728">
-        <v>1695902400</v>
+        <v>1695891600</v>
       </c>
       <c r="B728" t="s">
         <v>627</v>
@@ -23585,7 +23585,7 @@
     </row>
     <row r="729" spans="1:10">
       <c r="A729">
-        <v>1695906000</v>
+        <v>1695895200</v>
       </c>
       <c r="B729" t="s">
         <v>628</v>
@@ -23617,7 +23617,7 @@
     </row>
     <row r="730" spans="1:10">
       <c r="A730">
-        <v>1695909600</v>
+        <v>1695898800</v>
       </c>
       <c r="B730" t="s">
         <v>629</v>
@@ -23649,7 +23649,7 @@
     </row>
     <row r="731" spans="1:10">
       <c r="A731">
-        <v>1695913200</v>
+        <v>1695902400</v>
       </c>
       <c r="B731" t="s">
         <v>630</v>
@@ -23681,7 +23681,7 @@
     </row>
     <row r="732" spans="1:10">
       <c r="A732">
-        <v>1695916800</v>
+        <v>1695906000</v>
       </c>
       <c r="B732" t="s">
         <v>631</v>
@@ -23713,7 +23713,7 @@
     </row>
     <row r="733" spans="1:10">
       <c r="A733">
-        <v>1695920400</v>
+        <v>1695909600</v>
       </c>
       <c r="B733" t="s">
         <v>632</v>
@@ -23745,7 +23745,7 @@
     </row>
     <row r="734" spans="1:10">
       <c r="A734">
-        <v>1695924000</v>
+        <v>1695913200</v>
       </c>
       <c r="B734" t="s">
         <v>633</v>
@@ -23777,7 +23777,7 @@
     </row>
     <row r="735" spans="1:10">
       <c r="A735">
-        <v>1695927600</v>
+        <v>1695916800</v>
       </c>
       <c r="B735" t="s">
         <v>634</v>
@@ -23809,7 +23809,7 @@
     </row>
     <row r="736" spans="1:10">
       <c r="A736">
-        <v>1695931200</v>
+        <v>1695920400</v>
       </c>
       <c r="B736" t="s">
         <v>635</v>
@@ -23841,7 +23841,7 @@
     </row>
     <row r="737" spans="1:10">
       <c r="A737">
-        <v>1695934800</v>
+        <v>1695924000</v>
       </c>
       <c r="B737" t="s">
         <v>636</v>
@@ -23873,7 +23873,7 @@
     </row>
     <row r="738" spans="1:10">
       <c r="A738">
-        <v>1695938400</v>
+        <v>1695927600</v>
       </c>
       <c r="B738" t="s">
         <v>637</v>
@@ -23905,7 +23905,7 @@
     </row>
     <row r="739" spans="1:10">
       <c r="A739">
-        <v>1695942000</v>
+        <v>1695931200</v>
       </c>
       <c r="B739" t="s">
         <v>638</v>
@@ -23937,7 +23937,7 @@
     </row>
     <row r="740" spans="1:10">
       <c r="A740">
-        <v>1695945600</v>
+        <v>1695934800</v>
       </c>
       <c r="B740" t="s">
         <v>639</v>
@@ -23969,7 +23969,7 @@
     </row>
     <row r="741" spans="1:10">
       <c r="A741">
-        <v>1695949200</v>
+        <v>1695938400</v>
       </c>
       <c r="B741" t="s">
         <v>640</v>
@@ -24001,7 +24001,7 @@
     </row>
     <row r="742" spans="1:10">
       <c r="A742">
-        <v>1695952800</v>
+        <v>1695942000</v>
       </c>
       <c r="B742" t="s">
         <v>641</v>
@@ -24033,7 +24033,7 @@
     </row>
     <row r="743" spans="1:10">
       <c r="A743">
-        <v>1695956400</v>
+        <v>1695945600</v>
       </c>
       <c r="B743" t="s">
         <v>642</v>
@@ -24065,7 +24065,7 @@
     </row>
     <row r="744" spans="1:10">
       <c r="A744">
-        <v>1695956400</v>
+        <v>1695945600</v>
       </c>
       <c r="B744" t="s">
         <v>642</v>
@@ -24097,7 +24097,7 @@
     </row>
     <row r="745" spans="1:10">
       <c r="A745">
-        <v>1695960000</v>
+        <v>1695949200</v>
       </c>
       <c r="B745" t="s">
         <v>643</v>
@@ -24129,7 +24129,7 @@
     </row>
     <row r="746" spans="1:10">
       <c r="A746">
-        <v>1695963600</v>
+        <v>1695952800</v>
       </c>
       <c r="B746" t="s">
         <v>644</v>
@@ -24161,7 +24161,7 @@
     </row>
     <row r="747" spans="1:10">
       <c r="A747">
-        <v>1695967200</v>
+        <v>1695956400</v>
       </c>
       <c r="B747" t="s">
         <v>645</v>
@@ -24193,7 +24193,7 @@
     </row>
     <row r="748" spans="1:10">
       <c r="A748">
-        <v>1695970800</v>
+        <v>1695960000</v>
       </c>
       <c r="B748" t="s">
         <v>646</v>
@@ -24225,7 +24225,7 @@
     </row>
     <row r="749" spans="1:10">
       <c r="A749">
-        <v>1695974400</v>
+        <v>1695963600</v>
       </c>
       <c r="B749" t="s">
         <v>647</v>
@@ -24257,7 +24257,7 @@
     </row>
     <row r="750" spans="1:10">
       <c r="A750">
-        <v>1695978000</v>
+        <v>1695967200</v>
       </c>
       <c r="B750" t="s">
         <v>648</v>
@@ -24289,7 +24289,7 @@
     </row>
     <row r="751" spans="1:10">
       <c r="A751">
-        <v>1695981600</v>
+        <v>1695970800</v>
       </c>
       <c r="B751" t="s">
         <v>649</v>
@@ -24321,7 +24321,7 @@
     </row>
     <row r="752" spans="1:10">
       <c r="A752">
-        <v>1695985200</v>
+        <v>1695974400</v>
       </c>
       <c r="B752" t="s">
         <v>650</v>
@@ -24353,7 +24353,7 @@
     </row>
     <row r="753" spans="1:10">
       <c r="A753">
-        <v>1695988800</v>
+        <v>1695978000</v>
       </c>
       <c r="B753" t="s">
         <v>651</v>
@@ -24385,7 +24385,7 @@
     </row>
     <row r="754" spans="1:10">
       <c r="A754">
-        <v>1695992400</v>
+        <v>1695981600</v>
       </c>
       <c r="B754" t="s">
         <v>652</v>
@@ -24417,7 +24417,7 @@
     </row>
     <row r="755" spans="1:10">
       <c r="A755">
-        <v>1695996000</v>
+        <v>1695985200</v>
       </c>
       <c r="B755" t="s">
         <v>653</v>
@@ -24449,7 +24449,7 @@
     </row>
     <row r="756" spans="1:10">
       <c r="A756">
-        <v>1695999600</v>
+        <v>1695988800</v>
       </c>
       <c r="B756" t="s">
         <v>654</v>
@@ -24481,7 +24481,7 @@
     </row>
     <row r="757" spans="1:10">
       <c r="A757">
-        <v>1696003200</v>
+        <v>1695992400</v>
       </c>
       <c r="B757" t="s">
         <v>655</v>
@@ -24513,7 +24513,7 @@
     </row>
     <row r="758" spans="1:10">
       <c r="A758">
-        <v>1696006800</v>
+        <v>1695996000</v>
       </c>
       <c r="B758" t="s">
         <v>656</v>
@@ -24545,7 +24545,7 @@
     </row>
     <row r="759" spans="1:10">
       <c r="A759">
-        <v>1696010400</v>
+        <v>1695999600</v>
       </c>
       <c r="B759" t="s">
         <v>657</v>
@@ -24577,7 +24577,7 @@
     </row>
     <row r="760" spans="1:10">
       <c r="A760">
-        <v>1696014000</v>
+        <v>1696003200</v>
       </c>
       <c r="B760" t="s">
         <v>658</v>
@@ -24609,7 +24609,7 @@
     </row>
     <row r="761" spans="1:10">
       <c r="A761">
-        <v>1696017600</v>
+        <v>1696006800</v>
       </c>
       <c r="B761" t="s">
         <v>659</v>
@@ -24641,7 +24641,7 @@
     </row>
     <row r="762" spans="1:10">
       <c r="A762">
-        <v>1696021200</v>
+        <v>1696010400</v>
       </c>
       <c r="B762" t="s">
         <v>660</v>
@@ -24673,7 +24673,7 @@
     </row>
     <row r="763" spans="1:10">
       <c r="A763">
-        <v>1696021200</v>
+        <v>1696010400</v>
       </c>
       <c r="B763" t="s">
         <v>660</v>
@@ -24705,7 +24705,7 @@
     </row>
     <row r="764" spans="1:10">
       <c r="A764">
-        <v>1696024800</v>
+        <v>1696014000</v>
       </c>
       <c r="B764" t="s">
         <v>661</v>
@@ -24737,7 +24737,7 @@
     </row>
     <row r="765" spans="1:10">
       <c r="A765">
-        <v>1696024800</v>
+        <v>1696014000</v>
       </c>
       <c r="B765" t="s">
         <v>661</v>
@@ -24769,7 +24769,7 @@
     </row>
     <row r="766" spans="1:10">
       <c r="A766">
-        <v>1696028400</v>
+        <v>1696017600</v>
       </c>
       <c r="B766" t="s">
         <v>662</v>
@@ -24801,7 +24801,7 @@
     </row>
     <row r="767" spans="1:10">
       <c r="A767">
-        <v>1696032000</v>
+        <v>1696021200</v>
       </c>
       <c r="B767" t="s">
         <v>663</v>
@@ -24833,7 +24833,7 @@
     </row>
     <row r="768" spans="1:10">
       <c r="A768">
-        <v>1696035600</v>
+        <v>1696024800</v>
       </c>
       <c r="B768" t="s">
         <v>664</v>
@@ -24865,7 +24865,7 @@
     </row>
     <row r="769" spans="1:10">
       <c r="A769">
-        <v>1696039200</v>
+        <v>1696028400</v>
       </c>
       <c r="B769" t="s">
         <v>665</v>
@@ -24897,7 +24897,7 @@
     </row>
     <row r="770" spans="1:10">
       <c r="A770">
-        <v>1696042800</v>
+        <v>1696032000</v>
       </c>
       <c r="B770" t="s">
         <v>666</v>
@@ -24929,7 +24929,7 @@
     </row>
     <row r="771" spans="1:10">
       <c r="A771">
-        <v>1696046400</v>
+        <v>1696035600</v>
       </c>
       <c r="B771" t="s">
         <v>667</v>
@@ -24961,7 +24961,7 @@
     </row>
     <row r="772" spans="1:10">
       <c r="A772">
-        <v>1696050000</v>
+        <v>1696039200</v>
       </c>
       <c r="B772" t="s">
         <v>668</v>
@@ -24993,7 +24993,7 @@
     </row>
     <row r="773" spans="1:10">
       <c r="A773">
-        <v>1696053600</v>
+        <v>1696042800</v>
       </c>
       <c r="B773" t="s">
         <v>669</v>
@@ -25025,7 +25025,7 @@
     </row>
     <row r="774" spans="1:10">
       <c r="A774">
-        <v>1696057200</v>
+        <v>1696046400</v>
       </c>
       <c r="B774" t="s">
         <v>670</v>
@@ -25057,7 +25057,7 @@
     </row>
     <row r="775" spans="1:10">
       <c r="A775">
-        <v>1696060800</v>
+        <v>1696050000</v>
       </c>
       <c r="B775" t="s">
         <v>671</v>
@@ -25089,7 +25089,7 @@
     </row>
     <row r="776" spans="1:10">
       <c r="A776">
-        <v>1696064400</v>
+        <v>1696053600</v>
       </c>
       <c r="B776" t="s">
         <v>672</v>
@@ -25121,7 +25121,7 @@
     </row>
     <row r="777" spans="1:10">
       <c r="A777">
-        <v>1696068000</v>
+        <v>1696057200</v>
       </c>
       <c r="B777" t="s">
         <v>673</v>
@@ -25153,7 +25153,7 @@
     </row>
     <row r="778" spans="1:10">
       <c r="A778">
-        <v>1696071600</v>
+        <v>1696060800</v>
       </c>
       <c r="B778" t="s">
         <v>674</v>
@@ -25185,7 +25185,7 @@
     </row>
     <row r="779" spans="1:10">
       <c r="A779">
-        <v>1696075200</v>
+        <v>1696064400</v>
       </c>
       <c r="B779" t="s">
         <v>675</v>
@@ -25217,7 +25217,7 @@
     </row>
     <row r="780" spans="1:10">
       <c r="A780">
-        <v>1696078800</v>
+        <v>1696068000</v>
       </c>
       <c r="B780" t="s">
         <v>676</v>
@@ -25249,7 +25249,7 @@
     </row>
     <row r="781" spans="1:10">
       <c r="A781">
-        <v>1696082400</v>
+        <v>1696071600</v>
       </c>
       <c r="B781" t="s">
         <v>677</v>
@@ -25281,7 +25281,7 @@
     </row>
     <row r="782" spans="1:10">
       <c r="A782">
-        <v>1696086000</v>
+        <v>1696075200</v>
       </c>
       <c r="B782" t="s">
         <v>678</v>
@@ -25313,7 +25313,7 @@
     </row>
     <row r="783" spans="1:10">
       <c r="A783">
-        <v>1696089600</v>
+        <v>1696078800</v>
       </c>
       <c r="B783" t="s">
         <v>679</v>
@@ -25345,7 +25345,7 @@
     </row>
     <row r="784" spans="1:10">
       <c r="A784">
-        <v>1696093200</v>
+        <v>1696082400</v>
       </c>
       <c r="B784" t="s">
         <v>680</v>
@@ -25377,7 +25377,7 @@
     </row>
     <row r="785" spans="1:10">
       <c r="A785">
-        <v>1696096800</v>
+        <v>1696086000</v>
       </c>
       <c r="B785" t="s">
         <v>681</v>
@@ -25409,7 +25409,7 @@
     </row>
     <row r="786" spans="1:10">
       <c r="A786">
-        <v>1696100400</v>
+        <v>1696089600</v>
       </c>
       <c r="B786" t="s">
         <v>682</v>
@@ -25441,7 +25441,7 @@
     </row>
     <row r="787" spans="1:10">
       <c r="A787">
-        <v>1696104000</v>
+        <v>1696093200</v>
       </c>
       <c r="B787" t="s">
         <v>683</v>
@@ -25473,7 +25473,7 @@
     </row>
     <row r="788" spans="1:10">
       <c r="A788">
-        <v>1696107600</v>
+        <v>1696096800</v>
       </c>
       <c r="B788" t="s">
         <v>684</v>
@@ -25505,7 +25505,7 @@
     </row>
     <row r="789" spans="1:10">
       <c r="A789">
-        <v>1696111200</v>
+        <v>1696100400</v>
       </c>
       <c r="B789" t="s">
         <v>685</v>
@@ -25537,7 +25537,7 @@
     </row>
     <row r="790" spans="1:10">
       <c r="A790">
-        <v>1696111200</v>
+        <v>1696100400</v>
       </c>
       <c r="B790" t="s">
         <v>685</v>
@@ -25569,7 +25569,7 @@
     </row>
     <row r="791" spans="1:10">
       <c r="A791">
-        <v>1696114800</v>
+        <v>1696104000</v>
       </c>
       <c r="B791" t="s">
         <v>686</v>
